--- a/org134-composite.xlsx
+++ b/org134-composite.xlsx
@@ -560,7 +560,7 @@
         <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -625,10 +625,10 @@
         <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="L3" t="n">
         <v>0.3</v>
@@ -690,10 +690,10 @@
         <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="K4" t="n">
-        <v>0.35</v>
+        <v>0.7</v>
       </c>
       <c r="L4" t="n">
         <v>0.8</v>
@@ -755,10 +755,10 @@
         <v>4.5</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3157894736842106</v>
+        <v>0.6315789473684211</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1842105263157895</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="L5" t="n">
         <v>0.2</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
         <v>0.5</v>
@@ -885,10 +885,10 @@
         <v>4</v>
       </c>
       <c r="J7" t="n">
-        <v>0.025</v>
+        <v>0.05</v>
       </c>
       <c r="K7" t="n">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
       <c r="L7" t="n">
         <v>0.9</v>
@@ -950,10 +950,10 @@
         <v>4</v>
       </c>
       <c r="J8" t="n">
-        <v>0.07500000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="K8" t="n">
-        <v>0.425</v>
+        <v>0.85</v>
       </c>
       <c r="L8" t="n">
         <v>0.25</v>
@@ -1015,10 +1015,10 @@
         <v>5</v>
       </c>
       <c r="J9" t="n">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>0.075</v>
+        <v>0.15</v>
       </c>
       <c r="L9" t="n">
         <v>0.1</v>
@@ -1080,7 +1080,7 @@
         <v>5</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>4</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="K11" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L11" t="n">
         <v>0.25</v>
@@ -1210,7 +1210,7 @@
         <v>4.5</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>3.5</v>
       </c>
       <c r="J13" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1340,10 +1340,10 @@
         <v>4</v>
       </c>
       <c r="J14" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="K14" t="n">
-        <v>0.35</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="L14" t="n">
         <v>0.98</v>
@@ -1405,10 +1405,10 @@
         <v>4.5</v>
       </c>
       <c r="J15" t="n">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="K15" t="n">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="L15" t="n">
         <v>0.45</v>
@@ -1470,10 +1470,10 @@
         <v>5</v>
       </c>
       <c r="J16" t="n">
-        <v>0.388888888888889</v>
+        <v>0.7777777777777779</v>
       </c>
       <c r="K16" t="n">
-        <v>0.111111111111111</v>
+        <v>0.2222222222222221</v>
       </c>
       <c r="L16" t="n">
         <v>0.5</v>
@@ -1535,10 +1535,10 @@
         <v>4</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="K17" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.4444444444444445</v>
       </c>
       <c r="L17" t="n">
         <v>0.2</v>
@@ -1600,10 +1600,10 @@
         <v>4</v>
       </c>
       <c r="J18" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="K18" t="n">
         <v>0.3333333333333333</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1666666666666667</v>
       </c>
       <c r="L18" t="n">
         <v>0.1</v>
@@ -1665,10 +1665,10 @@
         <v>4</v>
       </c>
       <c r="J19" t="n">
-        <v>0.4</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L19" t="n">
         <v>0.05</v>
@@ -1730,10 +1730,10 @@
         <v>4.5</v>
       </c>
       <c r="J20" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K20" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="L20" t="n">
         <v>0.45</v>
@@ -1795,10 +1795,10 @@
         <v>5</v>
       </c>
       <c r="J21" t="n">
-        <v>0.3750000000000001</v>
+        <v>0.7500000000000001</v>
       </c>
       <c r="K21" t="n">
-        <v>0.1249999999999999</v>
+        <v>0.2499999999999999</v>
       </c>
       <c r="L21" t="n">
         <v>0.2</v>
@@ -1860,10 +1860,10 @@
         <v>4</v>
       </c>
       <c r="J22" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K22" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="L22" t="n">
         <v>0.4</v>
@@ -1925,10 +1925,10 @@
         <v>4</v>
       </c>
       <c r="J23" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K23" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L23" t="n">
         <v>0.33</v>
@@ -1990,10 +1990,10 @@
         <v>5</v>
       </c>
       <c r="J24" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2647058823529412</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="L24" t="n">
         <v>0.25</v>
@@ -2055,10 +2055,10 @@
         <v>5</v>
       </c>
       <c r="J25" t="n">
-        <v>0.475</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>0.025</v>
+        <v>0.05</v>
       </c>
       <c r="L25" t="n">
         <v>0.25</v>
@@ -2120,10 +2120,10 @@
         <v>4</v>
       </c>
       <c r="J26" t="n">
-        <v>0.39</v>
+        <v>0.7799999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>0.11</v>
+        <v>0.22</v>
       </c>
       <c r="L26" t="n">
         <v>0.34</v>
@@ -2185,10 +2185,10 @@
         <v>5</v>
       </c>
       <c r="J27" t="n">
-        <v>0.45</v>
+        <v>0.9</v>
       </c>
       <c r="K27" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="L27" t="n">
         <v>0.85</v>
@@ -2250,10 +2250,10 @@
         <v>5</v>
       </c>
       <c r="J28" t="n">
-        <v>0.3</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="L28" t="n">
         <v>0.3</v>
@@ -2315,10 +2315,10 @@
         <v>4.5</v>
       </c>
       <c r="J29" t="n">
-        <v>0.325</v>
+        <v>0.65</v>
       </c>
       <c r="K29" t="n">
-        <v>0.175</v>
+        <v>0.35</v>
       </c>
       <c r="L29" t="n">
         <v>0.3</v>
@@ -2380,10 +2380,10 @@
         <v>5</v>
       </c>
       <c r="J30" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K30" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -2445,10 +2445,10 @@
         <v>5</v>
       </c>
       <c r="J31" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="K31" t="n">
-        <v>0.3</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="L31" t="n">
         <v>0.18</v>
@@ -2510,10 +2510,10 @@
         <v>4</v>
       </c>
       <c r="J32" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K32" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="L32" t="n">
         <v>0.25</v>
@@ -2575,10 +2575,10 @@
         <v>3.5</v>
       </c>
       <c r="J33" t="n">
-        <v>0.3</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="K33" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="L33" t="n">
         <v>0.4</v>
@@ -2640,10 +2640,10 @@
         <v>5</v>
       </c>
       <c r="J34" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="K34" t="n">
-        <v>0.45</v>
+        <v>0.9</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -2705,10 +2705,10 @@
         <v>4.5</v>
       </c>
       <c r="J35" t="n">
-        <v>0.45</v>
+        <v>0.9</v>
       </c>
       <c r="K35" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="L35" t="n">
         <v>0.33</v>
@@ -2770,10 +2770,10 @@
         <v>4</v>
       </c>
       <c r="J36" t="n">
-        <v>0.275</v>
+        <v>0.55</v>
       </c>
       <c r="K36" t="n">
-        <v>0.225</v>
+        <v>0.45</v>
       </c>
       <c r="L36" t="n">
         <v>0.25</v>
@@ -2835,10 +2835,10 @@
         <v>4</v>
       </c>
       <c r="J37" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K37" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="L37" t="n">
         <v>0.2</v>
@@ -2900,10 +2900,10 @@
         <v>2.5</v>
       </c>
       <c r="J38" t="n">
-        <v>0.175</v>
+        <v>0.35</v>
       </c>
       <c r="K38" t="n">
-        <v>0.325</v>
+        <v>0.65</v>
       </c>
       <c r="L38" t="n">
         <v>0.5</v>
@@ -2965,10 +2965,10 @@
         <v>2.5</v>
       </c>
       <c r="J39" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K39" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L39" t="n">
         <v>1</v>
@@ -3030,10 +3030,10 @@
         <v>2</v>
       </c>
       <c r="J40" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="K40" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="L40" t="n">
         <v>0.3</v>
@@ -3095,10 +3095,10 @@
         <v>5</v>
       </c>
       <c r="J41" t="n">
-        <v>0.275</v>
+        <v>0.55</v>
       </c>
       <c r="K41" t="n">
-        <v>0.225</v>
+        <v>0.45</v>
       </c>
       <c r="L41" t="n">
         <v>0.4</v>
@@ -3160,10 +3160,10 @@
         <v>5</v>
       </c>
       <c r="J42" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="K42" t="n">
-        <v>0.35</v>
+        <v>0.7</v>
       </c>
       <c r="L42" t="n">
         <v>0.25</v>
@@ -3225,10 +3225,10 @@
         <v>5</v>
       </c>
       <c r="J43" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K43" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="L43" t="n">
         <v>0.1</v>
@@ -3293,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L44" t="n">
         <v>0.5</v>
@@ -3355,10 +3355,10 @@
         <v>4</v>
       </c>
       <c r="J45" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="K45" t="n">
-        <v>0.35</v>
+        <v>0.7</v>
       </c>
       <c r="L45" t="n">
         <v>0.1</v>
@@ -3420,10 +3420,10 @@
         <v>5</v>
       </c>
       <c r="J46" t="n">
-        <v>0.4</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="K46" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L46" t="n">
         <v>0.2</v>
@@ -3485,10 +3485,10 @@
         <v>4.122002820874471</v>
       </c>
       <c r="J47" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K47" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L47" t="n">
         <v>0.3589241311814759</v>
@@ -3550,10 +3550,10 @@
         <v>5</v>
       </c>
       <c r="J48" t="n">
-        <v>0.45</v>
+        <v>0.9</v>
       </c>
       <c r="K48" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="L48" t="n">
         <v>0.1</v>
@@ -3618,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L49" t="n">
         <v>0.15</v>
@@ -3680,10 +3680,10 @@
         <v>5</v>
       </c>
       <c r="J50" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K50" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -3748,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L51" t="n">
         <v>0.5</v>
@@ -3810,10 +3810,10 @@
         <v>5</v>
       </c>
       <c r="J52" t="n">
-        <v>0.45</v>
+        <v>0.9</v>
       </c>
       <c r="K52" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="L52" t="n">
         <v>0.2</v>
@@ -3875,10 +3875,10 @@
         <v>4</v>
       </c>
       <c r="J53" t="n">
-        <v>0.35</v>
+        <v>0.7</v>
       </c>
       <c r="K53" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="L53" t="n">
         <v>0.2</v>
@@ -3940,10 +3940,10 @@
         <v>5</v>
       </c>
       <c r="J54" t="n">
-        <v>0.35</v>
+        <v>0.7</v>
       </c>
       <c r="K54" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="L54" t="n">
         <v>0.5</v>
@@ -4005,10 +4005,10 @@
         <v>2.5</v>
       </c>
       <c r="J55" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="K55" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="L55" t="n">
         <v>0.2</v>
@@ -4070,10 +4070,10 @@
         <v>4</v>
       </c>
       <c r="J56" t="n">
-        <v>0.3500000000000001</v>
+        <v>0.7000000000000002</v>
       </c>
       <c r="K56" t="n">
-        <v>0.1499999999999999</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="L56" t="n">
         <v>0.05</v>
@@ -4135,10 +4135,10 @@
         <v>4</v>
       </c>
       <c r="J57" t="n">
-        <v>0.15</v>
+        <v>0.3000000000000001</v>
       </c>
       <c r="K57" t="n">
-        <v>0.35</v>
+        <v>0.7</v>
       </c>
       <c r="L57" t="n">
         <v>0.15</v>
@@ -4200,10 +4200,10 @@
         <v>5</v>
       </c>
       <c r="J58" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K58" t="n">
-        <v>0.4444444444444445</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="L58" t="n">
         <v>0.1</v>
@@ -4265,10 +4265,10 @@
         <v>4</v>
       </c>
       <c r="J59" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K59" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L59" t="n">
         <v>0.6</v>
@@ -4330,10 +4330,10 @@
         <v>5</v>
       </c>
       <c r="J60" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K60" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L60" t="n">
         <v>0.75</v>
@@ -4395,10 +4395,10 @@
         <v>5</v>
       </c>
       <c r="J61" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="K61" t="n">
-        <v>0.45</v>
+        <v>0.9</v>
       </c>
       <c r="L61" t="n">
         <v>0.25</v>
@@ -4460,10 +4460,10 @@
         <v>5</v>
       </c>
       <c r="J62" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K62" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="L62" t="n">
         <v>0.35</v>
@@ -4525,10 +4525,10 @@
         <v>4</v>
       </c>
       <c r="J63" t="n">
-        <v>0.3157894736842106</v>
+        <v>0.6315789473684211</v>
       </c>
       <c r="K63" t="n">
-        <v>0.1842105263157895</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="L63" t="n">
         <v>0.2</v>
@@ -4590,10 +4590,10 @@
         <v>4</v>
       </c>
       <c r="J64" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K64" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L64" t="n">
         <v>0.25</v>
@@ -4655,7 +4655,7 @@
         <v>5</v>
       </c>
       <c r="J65" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K65" t="n">
         <v>0</v>
@@ -4720,10 +4720,10 @@
         <v>3</v>
       </c>
       <c r="J66" t="n">
-        <v>0.3888888888888889</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="K66" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.2222222222222223</v>
       </c>
       <c r="L66" t="n">
         <v>0.15</v>
@@ -4788,7 +4788,7 @@
         <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
@@ -4853,7 +4853,7 @@
         <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L68" t="n">
         <v>1</v>
@@ -4915,10 +4915,10 @@
         <v>4</v>
       </c>
       <c r="J69" t="n">
-        <v>0.3</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="K69" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="L69" t="n">
         <v>0.3</v>
@@ -4980,10 +4980,10 @@
         <v>4</v>
       </c>
       <c r="J70" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="K70" t="n">
-        <v>0.4500000000000001</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="L70" t="n">
         <v>0.45</v>
@@ -5045,10 +5045,10 @@
         <v>4.5</v>
       </c>
       <c r="J71" t="n">
-        <v>0.31</v>
+        <v>0.62</v>
       </c>
       <c r="K71" t="n">
-        <v>0.19</v>
+        <v>0.38</v>
       </c>
       <c r="L71" t="n">
         <v>0.25</v>
@@ -5110,10 +5110,10 @@
         <v>5</v>
       </c>
       <c r="J72" t="n">
-        <v>0.35</v>
+        <v>0.7</v>
       </c>
       <c r="K72" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="L72" t="n">
         <v>0.7</v>
@@ -5175,10 +5175,10 @@
         <v>4</v>
       </c>
       <c r="J73" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="K73" t="n">
-        <v>0.35</v>
+        <v>0.7</v>
       </c>
       <c r="L73" t="n">
         <v>0.3</v>
@@ -5240,10 +5240,10 @@
         <v>4</v>
       </c>
       <c r="J74" t="n">
-        <v>0.4473684210526316</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="K74" t="n">
-        <v>0.05263157894736851</v>
+        <v>0.105263157894737</v>
       </c>
       <c r="L74" t="n">
         <v>0.75</v>
@@ -5305,10 +5305,10 @@
         <v>4</v>
       </c>
       <c r="J75" t="n">
-        <v>0.175</v>
+        <v>0.35</v>
       </c>
       <c r="K75" t="n">
-        <v>0.325</v>
+        <v>0.65</v>
       </c>
       <c r="L75" t="n">
         <v>0.25</v>
@@ -5370,10 +5370,10 @@
         <v>4</v>
       </c>
       <c r="J76" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="K76" t="n">
-        <v>0.3</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="L76" t="n">
         <v>0.0303030303030303</v>
@@ -5435,10 +5435,10 @@
         <v>5</v>
       </c>
       <c r="J77" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K77" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="L77" t="n">
         <v>0.2</v>
@@ -5500,10 +5500,10 @@
         <v>3</v>
       </c>
       <c r="J78" t="n">
-        <v>0.35</v>
+        <v>0.7</v>
       </c>
       <c r="K78" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="L78" t="n">
         <v>0.1</v>
@@ -5565,10 +5565,10 @@
         <v>4</v>
       </c>
       <c r="J79" t="n">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="K79" t="n">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="L79" t="n">
         <v>0.25</v>
@@ -5630,10 +5630,10 @@
         <v>2</v>
       </c>
       <c r="J80" t="n">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="K80" t="n">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="L80" t="n">
         <v>0.05</v>
@@ -5695,10 +5695,10 @@
         <v>4</v>
       </c>
       <c r="J81" t="n">
-        <v>0.225</v>
+        <v>0.45</v>
       </c>
       <c r="K81" t="n">
-        <v>0.275</v>
+        <v>0.55</v>
       </c>
       <c r="L81" t="n">
         <v>0.25</v>
@@ -5760,10 +5760,10 @@
         <v>5</v>
       </c>
       <c r="J82" t="n">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="K82" t="n">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="L82" t="n">
         <v>0.15</v>
@@ -5825,7 +5825,7 @@
         <v>4.5</v>
       </c>
       <c r="J83" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K83" t="n">
         <v>0</v>
@@ -5890,10 +5890,10 @@
         <v>4</v>
       </c>
       <c r="J84" t="n">
-        <v>0.4500000000000001</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="K84" t="n">
-        <v>0.04999999999999989</v>
+        <v>0.09999999999999978</v>
       </c>
       <c r="L84" t="n">
         <v>0.4736842105263158</v>
@@ -5955,10 +5955,10 @@
         <v>4.5</v>
       </c>
       <c r="J85" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="K85" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L85" t="n">
         <v>0.1</v>
@@ -6020,10 +6020,10 @@
         <v>4</v>
       </c>
       <c r="J86" t="n">
-        <v>0.4500000000000001</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="K86" t="n">
-        <v>0.04999999999999989</v>
+        <v>0.09999999999999978</v>
       </c>
       <c r="L86" t="n">
         <v>0.6</v>
@@ -6085,10 +6085,10 @@
         <v>2</v>
       </c>
       <c r="J87" t="n">
-        <v>0.2894736842105263</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="K87" t="n">
-        <v>0.2105263157894736</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="L87" t="n">
         <v>0.7</v>
@@ -6150,10 +6150,10 @@
         <v>4</v>
       </c>
       <c r="J88" t="n">
-        <v>0.36</v>
+        <v>0.72</v>
       </c>
       <c r="K88" t="n">
-        <v>0.1399999999999999</v>
+        <v>0.2799999999999999</v>
       </c>
       <c r="L88" t="n">
         <v>0.02</v>
@@ -6215,10 +6215,10 @@
         <v>5</v>
       </c>
       <c r="J89" t="n">
-        <v>0.225</v>
+        <v>0.45</v>
       </c>
       <c r="K89" t="n">
-        <v>0.275</v>
+        <v>0.55</v>
       </c>
       <c r="L89" t="n">
         <v>0.25</v>
@@ -6280,10 +6280,10 @@
         <v>3</v>
       </c>
       <c r="J90" t="n">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
       <c r="K90" t="n">
-        <v>0.025</v>
+        <v>0.05</v>
       </c>
       <c r="L90" t="n">
         <v>0.02</v>
@@ -6345,10 +6345,10 @@
         <v>4</v>
       </c>
       <c r="J91" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="K91" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.4444444444444445</v>
       </c>
       <c r="L91" t="n">
         <v>0.45</v>
@@ -6410,7 +6410,7 @@
         <v>4</v>
       </c>
       <c r="J92" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K92" t="n">
         <v>0</v>
@@ -6475,7 +6475,7 @@
         <v>4</v>
       </c>
       <c r="J93" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K93" t="n">
         <v>0</v>
@@ -6540,10 +6540,10 @@
         <v>4</v>
       </c>
       <c r="J94" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K94" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="L94" t="n">
         <v>0.75</v>
@@ -6605,10 +6605,10 @@
         <v>3.5</v>
       </c>
       <c r="J95" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K95" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L95" t="n">
         <v>0.3589241311814759</v>
@@ -6670,7 +6670,7 @@
         <v>4</v>
       </c>
       <c r="J96" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K96" t="n">
         <v>0</v>
@@ -6735,10 +6735,10 @@
         <v>4.5</v>
       </c>
       <c r="J97" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K97" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L97" t="n">
         <v>0.3589241311814759</v>
@@ -6800,10 +6800,10 @@
         <v>5</v>
       </c>
       <c r="J98" t="n">
-        <v>0.1153846153846154</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="K98" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L98" t="n">
         <v>0.8</v>
@@ -6865,10 +6865,10 @@
         <v>5</v>
       </c>
       <c r="J99" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K99" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="L99" t="n">
         <v>0.5025125628140703</v>
@@ -6930,10 +6930,10 @@
         <v>4.5</v>
       </c>
       <c r="J100" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="K100" t="n">
         <v>0.3333333333333333</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1666666666666667</v>
       </c>
       <c r="L100" t="n">
         <v>0.3</v>
@@ -6995,10 +6995,10 @@
         <v>4.5</v>
       </c>
       <c r="J101" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="K101" t="n">
         <v>0.3333333333333333</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.1666666666666667</v>
       </c>
       <c r="L101" t="n">
         <v>0.1256281407035176</v>
@@ -7063,7 +7063,7 @@
         <v>0</v>
       </c>
       <c r="K102" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L102" t="n">
         <v>0.5</v>
@@ -7125,10 +7125,10 @@
         <v>4</v>
       </c>
       <c r="J103" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K103" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="L103" t="n">
         <v>0.5</v>
@@ -7190,10 +7190,10 @@
         <v>4.5</v>
       </c>
       <c r="J104" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="K104" t="n">
         <v>0.3333333333333333</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0.1666666666666667</v>
       </c>
       <c r="L104" t="n">
         <v>0.5</v>
@@ -7255,10 +7255,10 @@
         <v>4</v>
       </c>
       <c r="J105" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K105" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="L105" t="n">
         <v>1</v>
@@ -7320,10 +7320,10 @@
         <v>4</v>
       </c>
       <c r="J106" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K106" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L106" t="n">
         <v>0.6000000000000001</v>
@@ -7388,7 +7388,7 @@
         <v>0</v>
       </c>
       <c r="K107" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L107" t="n">
         <v>0.4</v>
@@ -7450,7 +7450,7 @@
         <v>3</v>
       </c>
       <c r="J108" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K108" t="n">
         <v>0</v>
@@ -7515,7 +7515,7 @@
         <v>4.5</v>
       </c>
       <c r="J109" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K109" t="n">
         <v>0</v>
@@ -7580,10 +7580,10 @@
         <v>4</v>
       </c>
       <c r="J110" t="n">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="K110" t="n">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="L110" t="n">
         <v>0.15</v>
@@ -7648,7 +7648,7 @@
         <v>0</v>
       </c>
       <c r="K111" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L111" t="n">
         <v>0.4</v>
@@ -7710,10 +7710,10 @@
         <v>2.5</v>
       </c>
       <c r="J112" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K112" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L112" t="n">
         <v>0.5</v>
@@ -7775,7 +7775,7 @@
         <v>3</v>
       </c>
       <c r="J113" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K113" t="n">
         <v>0</v>
@@ -7840,10 +7840,10 @@
         <v>4</v>
       </c>
       <c r="J114" t="n">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="K114" t="n">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="L114" t="n">
         <v>0.3</v>
@@ -7905,7 +7905,7 @@
         <v>3</v>
       </c>
       <c r="J115" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K115" t="n">
         <v>0</v>
@@ -7970,7 +7970,7 @@
         <v>4</v>
       </c>
       <c r="J116" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K116" t="n">
         <v>0</v>
@@ -8035,10 +8035,10 @@
         <v>3</v>
       </c>
       <c r="J117" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K117" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L117" t="n">
         <v>0.9</v>
@@ -8100,10 +8100,10 @@
         <v>4</v>
       </c>
       <c r="J118" t="n">
-        <v>0.4473684210526316</v>
+        <v>0.8947368421052633</v>
       </c>
       <c r="K118" t="n">
-        <v>0.05263157894736845</v>
+        <v>0.1052631578947369</v>
       </c>
       <c r="L118" t="n">
         <v>0.5</v>
@@ -8168,7 +8168,7 @@
         <v>0</v>
       </c>
       <c r="K119" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L119" t="n">
         <v>0.8</v>
@@ -8230,10 +8230,10 @@
         <v>1.5</v>
       </c>
       <c r="J120" t="n">
-        <v>0.445</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="K120" t="n">
-        <v>0.05500000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="L120" t="n">
         <v>0.25</v>
@@ -8295,7 +8295,7 @@
         <v>3</v>
       </c>
       <c r="J121" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K121" t="n">
         <v>0</v>
@@ -8360,10 +8360,10 @@
         <v>5</v>
       </c>
       <c r="J122" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="K122" t="n">
-        <v>0.35</v>
+        <v>0.7</v>
       </c>
       <c r="L122" t="n">
         <v>0.25</v>
@@ -8425,10 +8425,10 @@
         <v>5</v>
       </c>
       <c r="J123" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K123" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L123" t="n">
         <v>0.3589241311814759</v>
@@ -8490,10 +8490,10 @@
         <v>2.5</v>
       </c>
       <c r="J124" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K124" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="L124" t="n">
         <v>0.25</v>
@@ -8555,10 +8555,10 @@
         <v>4</v>
       </c>
       <c r="J125" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K125" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="L125" t="n">
         <v>1</v>
@@ -8620,10 +8620,10 @@
         <v>3</v>
       </c>
       <c r="J126" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K126" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L126" t="n">
         <v>0</v>
@@ -8685,10 +8685,10 @@
         <v>3</v>
       </c>
       <c r="J127" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="K127" t="n">
-        <v>0.35</v>
+        <v>0.7</v>
       </c>
       <c r="L127" t="n">
         <v>0</v>
@@ -8750,10 +8750,10 @@
         <v>4.5</v>
       </c>
       <c r="J128" t="n">
-        <v>0.07500000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="K128" t="n">
-        <v>0.425</v>
+        <v>0.85</v>
       </c>
       <c r="L128" t="n">
         <v>0.1</v>
@@ -8818,7 +8818,7 @@
         <v>0</v>
       </c>
       <c r="K129" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L129" t="n">
         <v>0.1</v>
@@ -8880,10 +8880,10 @@
         <v>5</v>
       </c>
       <c r="J130" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="K130" t="n">
-        <v>0.07894736842105265</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="L130" t="n">
         <v>0.3</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="K131" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L131" t="n">
         <v>0.15</v>
@@ -9010,7 +9010,7 @@
         <v>3</v>
       </c>
       <c r="J132" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K132" t="n">
         <v>0</v>
@@ -9078,7 +9078,7 @@
         <v>0</v>
       </c>
       <c r="K133" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L133" t="n">
         <v>0.5</v>
@@ -9143,7 +9143,7 @@
         <v>0</v>
       </c>
       <c r="K134" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L134" t="n">
         <v>0.33</v>
@@ -9205,10 +9205,10 @@
         <v>3</v>
       </c>
       <c r="J135" t="n">
-        <v>0.45</v>
+        <v>0.9</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="L135" t="n">
         <v>0.02</v>
@@ -9270,7 +9270,7 @@
         <v>3</v>
       </c>
       <c r="J136" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K136" t="n">
         <v>0</v>
@@ -9335,10 +9335,10 @@
         <v>4.5</v>
       </c>
       <c r="J137" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K137" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L137" t="n">
         <v>0.05</v>
@@ -9403,7 +9403,7 @@
         <v>0</v>
       </c>
       <c r="K138" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L138" t="n">
         <v>0</v>
@@ -9465,10 +9465,10 @@
         <v>4.5</v>
       </c>
       <c r="J139" t="n">
-        <v>0.45</v>
+        <v>0.9</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="L139" t="n">
         <v>0.4</v>
@@ -9530,7 +9530,7 @@
         <v>4</v>
       </c>
       <c r="J140" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K140" t="n">
         <v>0</v>
@@ -9595,10 +9595,10 @@
         <v>3</v>
       </c>
       <c r="J141" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K141" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L141" t="n">
         <v>0.3</v>
@@ -9660,10 +9660,10 @@
         <v>4</v>
       </c>
       <c r="J142" t="n">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="K142" t="n">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="L142" t="n">
         <v>0.1</v>
@@ -9725,10 +9725,10 @@
         <v>4</v>
       </c>
       <c r="J143" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K143" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="L143" t="n">
         <v>0</v>
@@ -9790,10 +9790,10 @@
         <v>2.5</v>
       </c>
       <c r="J144" t="n">
-        <v>0.3124999999999999</v>
+        <v>0.6249999999999999</v>
       </c>
       <c r="K144" t="n">
-        <v>0.1874999999999999</v>
+        <v>0.3749999999999999</v>
       </c>
       <c r="L144" t="n">
         <v>0.95</v>
@@ -9855,7 +9855,7 @@
         <v>3</v>
       </c>
       <c r="J145" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K145" t="n">
         <v>0</v>
@@ -9920,10 +9920,10 @@
         <v>3.5</v>
       </c>
       <c r="J146" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="K146" t="n">
         <v>0.3333333333333333</v>
-      </c>
-      <c r="K146" t="n">
-        <v>0.1666666666666667</v>
       </c>
       <c r="L146" t="n">
         <v>0.05263157894736842</v>
@@ -9985,7 +9985,7 @@
         <v>2.5</v>
       </c>
       <c r="J147" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K147" t="n">
         <v>0</v>
@@ -10053,7 +10053,7 @@
         <v>0</v>
       </c>
       <c r="K148" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L148" t="n">
         <v>0.5</v>
@@ -10115,7 +10115,7 @@
         <v>3.5</v>
       </c>
       <c r="J149" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K149" t="n">
         <v>0</v>
@@ -10180,10 +10180,10 @@
         <v>2.5</v>
       </c>
       <c r="J150" t="n">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="K150" t="n">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="L150" t="n">
         <v>0.2</v>
@@ -10245,10 +10245,10 @@
         <v>4</v>
       </c>
       <c r="J151" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.5263157894736843</v>
       </c>
       <c r="K151" t="n">
-        <v>0.2368421052631579</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="L151" t="n">
         <v>0.3</v>
@@ -10310,10 +10310,10 @@
         <v>4</v>
       </c>
       <c r="J152" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="K152" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L152" t="n">
         <v>0.5</v>
@@ -10375,10 +10375,10 @@
         <v>2.5</v>
       </c>
       <c r="J153" t="n">
-        <v>0.4736842105263157</v>
+        <v>0.9473684210526314</v>
       </c>
       <c r="K153" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="L153" t="n">
         <v>0.3333333333333334</v>
@@ -10440,10 +10440,10 @@
         <v>3.5</v>
       </c>
       <c r="J154" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K154" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="L154" t="n">
         <v>0.5</v>
@@ -10505,10 +10505,10 @@
         <v>4</v>
       </c>
       <c r="J155" t="n">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="K155" t="n">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="L155" t="n">
         <v>0.4</v>
@@ -10570,10 +10570,10 @@
         <v>2.5</v>
       </c>
       <c r="J156" t="n">
-        <v>0.2474747474747475</v>
+        <v>0.494949494949495</v>
       </c>
       <c r="K156" t="n">
-        <v>0.2525252525252525</v>
+        <v>0.5050505050505051</v>
       </c>
       <c r="L156" t="n">
         <v>0.6</v>
@@ -10635,10 +10635,10 @@
         <v>4</v>
       </c>
       <c r="J157" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="K157" t="n">
-        <v>0.1842105263157895</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="L157" t="n">
         <v>0.25</v>
@@ -10700,7 +10700,7 @@
         <v>4</v>
       </c>
       <c r="J158" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K158" t="n">
         <v>0</v>
@@ -10765,10 +10765,10 @@
         <v>3</v>
       </c>
       <c r="J159" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="K159" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L159" t="n">
         <v>0.2</v>
@@ -10830,7 +10830,7 @@
         <v>4</v>
       </c>
       <c r="J160" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K160" t="n">
         <v>0</v>
@@ -10895,10 +10895,10 @@
         <v>3</v>
       </c>
       <c r="J161" t="n">
-        <v>0.335</v>
+        <v>0.67</v>
       </c>
       <c r="K161" t="n">
-        <v>0.165</v>
+        <v>0.33</v>
       </c>
       <c r="L161" t="n">
         <v>0.4</v>
@@ -10963,7 +10963,7 @@
         <v>0</v>
       </c>
       <c r="K162" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L162" t="n">
         <v>0.6</v>
@@ -11025,10 +11025,10 @@
         <v>4</v>
       </c>
       <c r="J163" t="n">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="K163" t="n">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="L163" t="n">
         <v>0.15</v>
@@ -11090,10 +11090,10 @@
         <v>3</v>
       </c>
       <c r="J164" t="n">
-        <v>0.3421052631578947</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="K164" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.3157894736842106</v>
       </c>
       <c r="L164" t="n">
         <v>0.1</v>
@@ -11155,10 +11155,10 @@
         <v>4.5</v>
       </c>
       <c r="J165" t="n">
-        <v>0.3</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="K165" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="L165" t="n">
         <v>0.25</v>
@@ -11220,10 +11220,10 @@
         <v>3</v>
       </c>
       <c r="J166" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K166" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="L166" t="n">
         <v>0.25</v>
@@ -11285,10 +11285,10 @@
         <v>5</v>
       </c>
       <c r="J167" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K167" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="L167" t="n">
         <v>0.7</v>
@@ -11350,10 +11350,10 @@
         <v>5</v>
       </c>
       <c r="J168" t="n">
-        <v>0.4500000000000001</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="K168" t="n">
-        <v>0.04999999999999989</v>
+        <v>0.09999999999999978</v>
       </c>
       <c r="L168" t="n">
         <v>0.1</v>
@@ -11415,10 +11415,10 @@
         <v>5</v>
       </c>
       <c r="J169" t="n">
-        <v>0.45</v>
+        <v>0.9</v>
       </c>
       <c r="K169" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="L169" t="n">
         <v>0.3</v>
@@ -11480,10 +11480,10 @@
         <v>5</v>
       </c>
       <c r="J170" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K170" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L170" t="n">
         <v>1</v>
@@ -11545,10 +11545,10 @@
         <v>5</v>
       </c>
       <c r="J171" t="n">
-        <v>0.03125</v>
+        <v>0.0625</v>
       </c>
       <c r="K171" t="n">
-        <v>0.46875</v>
+        <v>0.9375</v>
       </c>
       <c r="L171" t="n">
         <v>0.7000000000000001</v>
@@ -11610,10 +11610,10 @@
         <v>4</v>
       </c>
       <c r="J172" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.05555555555555556</v>
       </c>
       <c r="K172" t="n">
-        <v>0.4722222222222222</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L172" t="n">
         <v>0.15</v>
@@ -11675,10 +11675,10 @@
         <v>4</v>
       </c>
       <c r="J173" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K173" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="L173" t="n">
         <v>0.6</v>
@@ -11740,10 +11740,10 @@
         <v>3</v>
       </c>
       <c r="J174" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="K174" t="n">
-        <v>0.35</v>
+        <v>0.7</v>
       </c>
       <c r="L174" t="n">
         <v>0.5</v>
@@ -11805,10 +11805,10 @@
         <v>4.5</v>
       </c>
       <c r="J175" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K175" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="L175" t="n">
         <v>0.75</v>
@@ -11870,10 +11870,10 @@
         <v>4</v>
       </c>
       <c r="J176" t="n">
-        <v>0.325</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="K176" t="n">
-        <v>0.175</v>
+        <v>0.35</v>
       </c>
       <c r="L176" t="n">
         <v>0.25</v>
@@ -11938,7 +11938,7 @@
         <v>0</v>
       </c>
       <c r="K177" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L177" t="n">
         <v>0.8</v>
@@ -12000,7 +12000,7 @@
         <v>4</v>
       </c>
       <c r="J178" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K178" t="n">
         <v>0</v>
@@ -12065,10 +12065,10 @@
         <v>4</v>
       </c>
       <c r="J179" t="n">
-        <v>0.175</v>
+        <v>0.35</v>
       </c>
       <c r="K179" t="n">
-        <v>0.325</v>
+        <v>0.65</v>
       </c>
       <c r="L179" t="n">
         <v>0.6000000000000001</v>
@@ -12130,10 +12130,10 @@
         <v>4</v>
       </c>
       <c r="J180" t="n">
-        <v>0.325</v>
+        <v>0.65</v>
       </c>
       <c r="K180" t="n">
-        <v>0.175</v>
+        <v>0.35</v>
       </c>
       <c r="L180" t="n">
         <v>0.45</v>
@@ -12195,10 +12195,10 @@
         <v>3</v>
       </c>
       <c r="J181" t="n">
-        <v>0.165</v>
+        <v>0.33</v>
       </c>
       <c r="K181" t="n">
-        <v>0.335</v>
+        <v>0.67</v>
       </c>
       <c r="L181" t="n">
         <v>0.33</v>
@@ -12260,10 +12260,10 @@
         <v>4</v>
       </c>
       <c r="J182" t="n">
-        <v>0.2058823529411765</v>
+        <v>0.411764705882353</v>
       </c>
       <c r="K182" t="n">
-        <v>0.2941176470588235</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L182" t="n">
         <v>0.35</v>
@@ -12325,10 +12325,10 @@
         <v>3.5</v>
       </c>
       <c r="J183" t="n">
-        <v>0.44</v>
+        <v>0.88</v>
       </c>
       <c r="K183" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="L183" t="n">
         <v>0.6</v>
@@ -12390,7 +12390,7 @@
         <v>5</v>
       </c>
       <c r="J184" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K184" t="n">
         <v>0</v>
@@ -12455,10 +12455,10 @@
         <v>4</v>
       </c>
       <c r="J185" t="n">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="K185" t="n">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="L185" t="n">
         <v>0.75</v>
@@ -12520,10 +12520,10 @@
         <v>5</v>
       </c>
       <c r="J186" t="n">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="K186" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="L186" t="n">
         <v>0.5</v>
@@ -12585,10 +12585,10 @@
         <v>3.5</v>
       </c>
       <c r="J187" t="n">
-        <v>0.131578947368421</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="K187" t="n">
-        <v>0.3684210526315789</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L187" t="n">
         <v>0.75</v>
@@ -12650,10 +12650,10 @@
         <v>4</v>
       </c>
       <c r="J188" t="n">
-        <v>0.31</v>
+        <v>0.62</v>
       </c>
       <c r="K188" t="n">
-        <v>0.1899999999999999</v>
+        <v>0.3799999999999999</v>
       </c>
       <c r="L188" t="n">
         <v>0.5</v>
@@ -12715,10 +12715,10 @@
         <v>5</v>
       </c>
       <c r="J189" t="n">
-        <v>0.0789473684210526</v>
+        <v>0.1578947368421052</v>
       </c>
       <c r="K189" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="L189" t="n">
         <v>0.05</v>
@@ -12780,10 +12780,10 @@
         <v>3.5</v>
       </c>
       <c r="J190" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K190" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="L190" t="n">
         <v>0.3</v>
@@ -12845,10 +12845,10 @@
         <v>5</v>
       </c>
       <c r="J191" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K191" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="L191" t="n">
         <v>0.6</v>
@@ -12913,7 +12913,7 @@
         <v>0</v>
       </c>
       <c r="K192" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L192" t="n">
         <v>0.75</v>
@@ -12975,10 +12975,10 @@
         <v>4</v>
       </c>
       <c r="J193" t="n">
-        <v>0.225</v>
+        <v>0.45</v>
       </c>
       <c r="K193" t="n">
-        <v>0.275</v>
+        <v>0.55</v>
       </c>
       <c r="L193" t="n">
         <v>0.7</v>
@@ -13040,10 +13040,10 @@
         <v>5</v>
       </c>
       <c r="J194" t="n">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="K194" t="n">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="L194" t="n">
         <v>0.3</v>
@@ -13105,10 +13105,10 @@
         <v>4.5</v>
       </c>
       <c r="J195" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L195" t="n">
         <v>0.8</v>
@@ -13170,10 +13170,10 @@
         <v>5</v>
       </c>
       <c r="J196" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L196" t="n">
         <v>0.7</v>
@@ -13235,10 +13235,10 @@
         <v>4.5</v>
       </c>
       <c r="J197" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="K197" t="n">
-        <v>0.35</v>
+        <v>0.7</v>
       </c>
       <c r="L197" t="n">
         <v>0.4</v>
@@ -13300,10 +13300,10 @@
         <v>4</v>
       </c>
       <c r="J198" t="n">
-        <v>0.275</v>
+        <v>0.55</v>
       </c>
       <c r="K198" t="n">
-        <v>0.225</v>
+        <v>0.45</v>
       </c>
       <c r="L198" t="n">
         <v>0.2</v>
@@ -13365,10 +13365,10 @@
         <v>4</v>
       </c>
       <c r="J199" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="K199" t="n">
-        <v>0.35</v>
+        <v>0.7</v>
       </c>
       <c r="L199" t="n">
         <v>0.1</v>
@@ -13430,7 +13430,7 @@
         <v>4.5</v>
       </c>
       <c r="J200" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K200" t="n">
         <v>0</v>
@@ -13495,10 +13495,10 @@
         <v>4</v>
       </c>
       <c r="J201" t="n">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="K201" t="n">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="L201" t="n">
         <v>0.9</v>
@@ -13560,7 +13560,7 @@
         <v>5</v>
       </c>
       <c r="J202" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K202" t="n">
         <v>0</v>
@@ -13628,7 +13628,7 @@
         <v>0</v>
       </c>
       <c r="K203" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L203" t="n">
         <v>0</v>
@@ -13690,7 +13690,7 @@
         <v>4.5</v>
       </c>
       <c r="J204" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K204" t="n">
         <v>0</v>
@@ -13755,10 +13755,10 @@
         <v>5</v>
       </c>
       <c r="J205" t="n">
-        <v>0.425</v>
+        <v>0.85</v>
       </c>
       <c r="K205" t="n">
-        <v>0.07500000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="L205" t="n">
         <v>0.05</v>
@@ -13820,7 +13820,7 @@
         <v>3.5</v>
       </c>
       <c r="J206" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K206" t="n">
         <v>0</v>
@@ -13885,10 +13885,10 @@
         <v>4.5</v>
       </c>
       <c r="J207" t="n">
-        <v>0.275</v>
+        <v>0.55</v>
       </c>
       <c r="K207" t="n">
-        <v>0.225</v>
+        <v>0.45</v>
       </c>
       <c r="L207" t="n">
         <v>0.1</v>
@@ -13950,10 +13950,10 @@
         <v>5</v>
       </c>
       <c r="J208" t="n">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
       <c r="K208" t="n">
-        <v>0.025</v>
+        <v>0.05</v>
       </c>
       <c r="L208" t="n">
         <v>0.1</v>
@@ -14015,10 +14015,10 @@
         <v>3</v>
       </c>
       <c r="J209" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L209" t="n">
         <v>0</v>
@@ -14080,10 +14080,10 @@
         <v>4</v>
       </c>
       <c r="J210" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K210" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="L210" t="n">
         <v>0</v>
@@ -14145,10 +14145,10 @@
         <v>4</v>
       </c>
       <c r="J211" t="n">
-        <v>0.275</v>
+        <v>0.55</v>
       </c>
       <c r="K211" t="n">
-        <v>0.225</v>
+        <v>0.45</v>
       </c>
       <c r="L211" t="n">
         <v>0</v>
@@ -14210,10 +14210,10 @@
         <v>5</v>
       </c>
       <c r="J212" t="n">
-        <v>0.45</v>
+        <v>0.9</v>
       </c>
       <c r="K212" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="L212" t="n">
         <v>0.1</v>
@@ -14275,10 +14275,10 @@
         <v>3.5</v>
       </c>
       <c r="J213" t="n">
-        <v>0.275</v>
+        <v>0.55</v>
       </c>
       <c r="K213" t="n">
-        <v>0.225</v>
+        <v>0.45</v>
       </c>
       <c r="L213" t="n">
         <v>0.3333</v>
@@ -14340,10 +14340,10 @@
         <v>5</v>
       </c>
       <c r="J214" t="n">
-        <v>0.2777777777777777</v>
+        <v>0.5555555555555555</v>
       </c>
       <c r="K214" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.4444444444444445</v>
       </c>
       <c r="L214" t="n">
         <v>0</v>
@@ -14405,10 +14405,10 @@
         <v>4</v>
       </c>
       <c r="J215" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L215" t="n">
         <v>0.2</v>
@@ -14470,10 +14470,10 @@
         <v>4.5</v>
       </c>
       <c r="J216" t="n">
-        <v>0.46</v>
+        <v>0.92</v>
       </c>
       <c r="K216" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="L216" t="n">
         <v>0.33</v>
@@ -14535,10 +14535,10 @@
         <v>4</v>
       </c>
       <c r="J217" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="K217" t="n">
-        <v>0.35</v>
+        <v>0.7</v>
       </c>
       <c r="L217" t="n">
         <v>0.8</v>
@@ -14600,10 +14600,10 @@
         <v>5</v>
       </c>
       <c r="J218" t="n">
-        <v>0.35</v>
+        <v>0.7</v>
       </c>
       <c r="K218" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="L218" t="n">
         <v>0.25</v>
@@ -14665,10 +14665,10 @@
         <v>5</v>
       </c>
       <c r="J219" t="n">
-        <v>0.45</v>
+        <v>0.9</v>
       </c>
       <c r="K219" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="L219" t="n">
         <v>0.2</v>
@@ -14730,10 +14730,10 @@
         <v>4</v>
       </c>
       <c r="J220" t="n">
-        <v>0.35</v>
+        <v>0.7</v>
       </c>
       <c r="K220" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="L220" t="n">
         <v>0.1</v>
@@ -14795,7 +14795,7 @@
         <v>4</v>
       </c>
       <c r="J221" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K221" t="n">
         <v>0</v>
@@ -14860,10 +14860,10 @@
         <v>5</v>
       </c>
       <c r="J222" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L222" t="n">
         <v>0.2</v>
@@ -14925,10 +14925,10 @@
         <v>4.5</v>
       </c>
       <c r="J223" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="K223" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="L223" t="n">
         <v>0.25</v>
@@ -14990,10 +14990,10 @@
         <v>4.5</v>
       </c>
       <c r="J224" t="n">
-        <v>0.1052631578947369</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="K224" t="n">
-        <v>0.3947368421052632</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L224" t="n">
         <v>0.2</v>
@@ -15055,10 +15055,10 @@
         <v>3</v>
       </c>
       <c r="J225" t="n">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
       <c r="K225" t="n">
-        <v>0.025</v>
+        <v>0.05</v>
       </c>
       <c r="L225" t="n">
         <v>0.3</v>
@@ -15120,10 +15120,10 @@
         <v>4</v>
       </c>
       <c r="J226" t="n">
-        <v>0.325</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="K226" t="n">
-        <v>0.175</v>
+        <v>0.35</v>
       </c>
       <c r="L226" t="n">
         <v>0.2</v>
@@ -15185,10 +15185,10 @@
         <v>3</v>
       </c>
       <c r="J227" t="n">
-        <v>0.388888888888889</v>
+        <v>0.7777777777777779</v>
       </c>
       <c r="K227" t="n">
-        <v>0.111111111111111</v>
+        <v>0.2222222222222221</v>
       </c>
       <c r="L227" t="n">
         <v>0.1</v>
@@ -15250,10 +15250,10 @@
         <v>4.5</v>
       </c>
       <c r="J228" t="n">
-        <v>0.45</v>
+        <v>0.9</v>
       </c>
       <c r="K228" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="L228" t="n">
         <v>0.2</v>
@@ -15315,10 +15315,10 @@
         <v>5</v>
       </c>
       <c r="J229" t="n">
-        <v>0.4500000000000001</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="K229" t="n">
-        <v>0.04999999999999989</v>
+        <v>0.09999999999999978</v>
       </c>
       <c r="L229" t="n">
         <v>0.25</v>
@@ -15380,10 +15380,10 @@
         <v>4</v>
       </c>
       <c r="J230" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="K230" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="L230" t="n">
         <v>0.5</v>
@@ -15445,10 +15445,10 @@
         <v>4</v>
       </c>
       <c r="J231" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K231" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="L231" t="n">
         <v>0</v>
@@ -15510,10 +15510,10 @@
         <v>3</v>
       </c>
       <c r="J232" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K232" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="L232" t="n">
         <v>0.6</v>
@@ -15575,10 +15575,10 @@
         <v>4</v>
       </c>
       <c r="J233" t="n">
-        <v>0.45</v>
+        <v>0.9</v>
       </c>
       <c r="K233" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="L233" t="n">
         <v>0.7</v>
@@ -15640,10 +15640,10 @@
         <v>4</v>
       </c>
       <c r="J234" t="n">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="K234" t="n">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="L234" t="n">
         <v>0.05</v>
@@ -15705,10 +15705,10 @@
         <v>4</v>
       </c>
       <c r="J235" t="n">
-        <v>0.35</v>
+        <v>0.7</v>
       </c>
       <c r="K235" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="L235" t="n">
         <v>0.6</v>
@@ -15770,10 +15770,10 @@
         <v>5</v>
       </c>
       <c r="J236" t="n">
-        <v>0.34</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="K236" t="n">
-        <v>0.16</v>
+        <v>0.32</v>
       </c>
       <c r="L236" t="n">
         <v>0.05</v>
@@ -15835,10 +15835,10 @@
         <v>4</v>
       </c>
       <c r="J237" t="n">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="K237" t="n">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="L237" t="n">
         <v>0</v>
@@ -15900,7 +15900,7 @@
         <v>4.5</v>
       </c>
       <c r="J238" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K238" t="n">
         <v>0</v>
@@ -15965,10 +15965,10 @@
         <v>5</v>
       </c>
       <c r="J239" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K239" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="L239" t="n">
         <v>0.25</v>
@@ -16030,10 +16030,10 @@
         <v>4.5</v>
       </c>
       <c r="J240" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="K240" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="L240" t="n">
         <v>0.5</v>
@@ -16095,10 +16095,10 @@
         <v>5</v>
       </c>
       <c r="J241" t="n">
-        <v>0.45</v>
+        <v>0.9</v>
       </c>
       <c r="K241" t="n">
-        <v>0.05</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="L241" t="n">
         <v>0.05</v>
@@ -16163,7 +16163,7 @@
         <v>0</v>
       </c>
       <c r="K242" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L242" t="n">
         <v>1</v>
@@ -16225,10 +16225,10 @@
         <v>4</v>
       </c>
       <c r="J243" t="n">
-        <v>0.35</v>
+        <v>0.7</v>
       </c>
       <c r="K243" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="L243" t="n">
         <v>0.1</v>
@@ -16290,10 +16290,10 @@
         <v>5</v>
       </c>
       <c r="J244" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="K244" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="L244" t="n">
         <v>0.05</v>
@@ -16355,10 +16355,10 @@
         <v>4</v>
       </c>
       <c r="J245" t="n">
-        <v>0.4500000000000001</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="K245" t="n">
-        <v>0.04999999999999989</v>
+        <v>0.09999999999999978</v>
       </c>
       <c r="L245" t="n">
         <v>0.8</v>
@@ -16420,10 +16420,10 @@
         <v>5</v>
       </c>
       <c r="J246" t="n">
-        <v>0.325</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1749999999999999</v>
+        <v>0.3499999999999998</v>
       </c>
       <c r="L246" t="n">
         <v>0.25</v>
@@ -16485,10 +16485,10 @@
         <v>4</v>
       </c>
       <c r="J247" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="K247" t="n">
-        <v>0.07894736842105265</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="L247" t="n">
         <v>0.2</v>
@@ -16550,10 +16550,10 @@
         <v>4.5</v>
       </c>
       <c r="J248" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="K248" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="L248" t="n">
         <v>0.1</v>
@@ -16615,10 +16615,10 @@
         <v>4</v>
       </c>
       <c r="J249" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="K249" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="L249" t="n">
         <v>0.1</v>
@@ -16680,10 +16680,10 @@
         <v>4</v>
       </c>
       <c r="J250" t="n">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="K250" t="n">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="L250" t="n">
         <v>0.45</v>
@@ -16745,10 +16745,10 @@
         <v>4</v>
       </c>
       <c r="J251" t="n">
-        <v>0.45</v>
+        <v>0.9</v>
       </c>
       <c r="K251" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="L251" t="n">
         <v>0.25</v>
@@ -16810,10 +16810,10 @@
         <v>4</v>
       </c>
       <c r="J252" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K252" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="L252" t="n">
         <v>0.75</v>
@@ -16875,10 +16875,10 @@
         <v>5</v>
       </c>
       <c r="J253" t="n">
-        <v>0.45</v>
+        <v>0.9</v>
       </c>
       <c r="K253" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="L253" t="n">
         <v>0.05</v>
@@ -16940,7 +16940,7 @@
         <v>5</v>
       </c>
       <c r="J254" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K254" t="n">
         <v>0</v>
@@ -17005,10 +17005,10 @@
         <v>5</v>
       </c>
       <c r="J255" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K255" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="L255" t="n">
         <v>0.75</v>
@@ -17070,10 +17070,10 @@
         <v>4</v>
       </c>
       <c r="J256" t="n">
-        <v>0.175</v>
+        <v>0.35</v>
       </c>
       <c r="K256" t="n">
-        <v>0.325</v>
+        <v>0.65</v>
       </c>
       <c r="L256" t="n">
         <v>0.5</v>
@@ -17135,10 +17135,10 @@
         <v>4</v>
       </c>
       <c r="J257" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L257" t="n">
         <v>0.05</v>
@@ -17200,10 +17200,10 @@
         <v>5</v>
       </c>
       <c r="J258" t="n">
-        <v>0.475</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="K258" t="n">
-        <v>0.025</v>
+        <v>0.05</v>
       </c>
       <c r="L258" t="n">
         <v>0.2</v>
@@ -17265,10 +17265,10 @@
         <v>4.5</v>
       </c>
       <c r="J259" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K259" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L259" t="n">
         <v>0.3589241311814759</v>
@@ -17330,10 +17330,10 @@
         <v>4</v>
       </c>
       <c r="J260" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K260" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L260" t="n">
         <v>0.3589241311814759</v>
@@ -17395,10 +17395,10 @@
         <v>4.5</v>
       </c>
       <c r="J261" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K261" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L261" t="n">
         <v>0.3589241311814759</v>
@@ -17460,10 +17460,10 @@
         <v>4.5</v>
       </c>
       <c r="J262" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K262" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L262" t="n">
         <v>0.3589241311814759</v>
@@ -17525,10 +17525,10 @@
         <v>5</v>
       </c>
       <c r="J263" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K263" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L263" t="n">
         <v>0.3589241311814759</v>
@@ -17590,10 +17590,10 @@
         <v>4</v>
       </c>
       <c r="J264" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K264" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L264" t="n">
         <v>0.3589241311814759</v>
@@ -17655,10 +17655,10 @@
         <v>5</v>
       </c>
       <c r="J265" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K265" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L265" t="n">
         <v>0.3589241311814759</v>
@@ -17720,10 +17720,10 @@
         <v>4</v>
       </c>
       <c r="J266" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K266" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L266" t="n">
         <v>0.3589241311814759</v>
@@ -17785,10 +17785,10 @@
         <v>4</v>
       </c>
       <c r="J267" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K267" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L267" t="n">
         <v>0.3589241311814759</v>
@@ -17850,10 +17850,10 @@
         <v>4.5</v>
       </c>
       <c r="J268" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K268" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L268" t="n">
         <v>0.3589241311814759</v>
@@ -17915,10 +17915,10 @@
         <v>5</v>
       </c>
       <c r="J269" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K269" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L269" t="n">
         <v>0.3589241311814759</v>
@@ -17980,10 +17980,10 @@
         <v>4</v>
       </c>
       <c r="J270" t="n">
-        <v>0.45</v>
+        <v>0.9</v>
       </c>
       <c r="K270" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="L270" t="n">
         <v>0.6</v>
@@ -18048,7 +18048,7 @@
         <v>0</v>
       </c>
       <c r="K271" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L271" t="n">
         <v>0.25</v>
@@ -18110,10 +18110,10 @@
         <v>5</v>
       </c>
       <c r="J272" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K272" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L272" t="n">
         <v>0.3589241311814759</v>
@@ -18175,10 +18175,10 @@
         <v>4.5</v>
       </c>
       <c r="J273" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K273" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L273" t="n">
         <v>0</v>
@@ -18240,10 +18240,10 @@
         <v>5</v>
       </c>
       <c r="J274" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K274" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L274" t="n">
         <v>0.3589241311814759</v>
@@ -18305,10 +18305,10 @@
         <v>5</v>
       </c>
       <c r="J275" t="n">
-        <v>0.45</v>
+        <v>0.9</v>
       </c>
       <c r="K275" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="L275" t="n">
         <v>0.8</v>
@@ -18370,10 +18370,10 @@
         <v>4.5</v>
       </c>
       <c r="J276" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="K276" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L276" t="n">
         <v>0</v>
@@ -18435,10 +18435,10 @@
         <v>5</v>
       </c>
       <c r="J277" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K277" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L277" t="n">
         <v>0.3589241311814759</v>
@@ -18500,10 +18500,10 @@
         <v>1</v>
       </c>
       <c r="J278" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K278" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="L278" t="n">
         <v>0.25</v>
@@ -18565,7 +18565,7 @@
         <v>5</v>
       </c>
       <c r="J279" t="n">
-        <v>0.4999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K279" t="n">
         <v>0</v>
@@ -18630,10 +18630,10 @@
         <v>4</v>
       </c>
       <c r="J280" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K280" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L280" t="n">
         <v>0.3589241311814759</v>
@@ -18695,10 +18695,10 @@
         <v>4.5</v>
       </c>
       <c r="J281" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K281" t="n">
-        <v>0.3333333333333334</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="L281" t="n">
         <v>0.05</v>
@@ -18763,7 +18763,7 @@
         <v>0</v>
       </c>
       <c r="K282" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L282" t="n">
         <v>0.8</v>
@@ -18825,10 +18825,10 @@
         <v>5</v>
       </c>
       <c r="J283" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K283" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L283" t="n">
         <v>0.3589241311814759</v>
@@ -18890,10 +18890,10 @@
         <v>5</v>
       </c>
       <c r="J284" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K284" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L284" t="n">
         <v>0.3589241311814759</v>
@@ -18955,7 +18955,7 @@
         <v>5</v>
       </c>
       <c r="J285" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K285" t="n">
         <v>0</v>
@@ -19023,7 +19023,7 @@
         <v>0</v>
       </c>
       <c r="K286" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L286" t="n">
         <v>0.25</v>
@@ -19085,10 +19085,10 @@
         <v>5</v>
       </c>
       <c r="J287" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="K287" t="n">
         <v>0.3333333333333333</v>
-      </c>
-      <c r="K287" t="n">
-        <v>0.1666666666666667</v>
       </c>
       <c r="L287" t="n">
         <v>0.25</v>
@@ -19150,10 +19150,10 @@
         <v>3.5</v>
       </c>
       <c r="J288" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K288" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L288" t="n">
         <v>0.3589241311814759</v>
@@ -19215,10 +19215,10 @@
         <v>3.5</v>
       </c>
       <c r="J289" t="n">
-        <v>0.3947368421052632</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="K289" t="n">
-        <v>0.1052631578947369</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="L289" t="n">
         <v>0.6000000000000001</v>
@@ -19283,7 +19283,7 @@
         <v>0</v>
       </c>
       <c r="K290" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L290" t="n">
         <v>0.7</v>
@@ -19348,7 +19348,7 @@
         <v>0</v>
       </c>
       <c r="K291" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L291" t="n">
         <v>1</v>
@@ -19413,7 +19413,7 @@
         <v>0</v>
       </c>
       <c r="K292" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L292" t="n">
         <v>0.3333333333333333</v>
@@ -19475,10 +19475,10 @@
         <v>2.5</v>
       </c>
       <c r="J293" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K293" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L293" t="n">
         <v>0.3589241311814759</v>
@@ -19540,10 +19540,10 @@
         <v>5</v>
       </c>
       <c r="J294" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K294" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L294" t="n">
         <v>0.3589241311814759</v>
@@ -19608,7 +19608,7 @@
         <v>0</v>
       </c>
       <c r="K295" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L295" t="n">
         <v>0.1</v>
@@ -19670,10 +19670,10 @@
         <v>3</v>
       </c>
       <c r="J296" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K296" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="L296" t="n">
         <v>0.6</v>
@@ -19735,10 +19735,10 @@
         <v>4</v>
       </c>
       <c r="J297" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K297" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="L297" t="n">
         <v>0.2</v>
@@ -19800,10 +19800,10 @@
         <v>4</v>
       </c>
       <c r="J298" t="n">
-        <v>0.2499999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="K298" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="L298" t="n">
         <v>0.4</v>
@@ -19868,7 +19868,7 @@
         <v>0</v>
       </c>
       <c r="K299" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L299" t="n">
         <v>0.05</v>
@@ -19930,10 +19930,10 @@
         <v>4</v>
       </c>
       <c r="J300" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K300" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L300" t="n">
         <v>0.3589241311814759</v>
@@ -19995,10 +19995,10 @@
         <v>5</v>
       </c>
       <c r="J301" t="n">
+        <v>0.6666666666666669</v>
+      </c>
+      <c r="K301" t="n">
         <v>0.3333333333333334</v>
-      </c>
-      <c r="K301" t="n">
-        <v>0.1666666666666667</v>
       </c>
       <c r="L301" t="n">
         <v>1</v>
@@ -20063,7 +20063,7 @@
         <v>0</v>
       </c>
       <c r="K302" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L302" t="n">
         <v>0.2</v>
@@ -20125,10 +20125,10 @@
         <v>5</v>
       </c>
       <c r="J303" t="n">
-        <v>0.2142857142857143</v>
+        <v>0.4285714285714286</v>
       </c>
       <c r="K303" t="n">
-        <v>0.2857142857142858</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="L303" t="n">
         <v>0.65</v>
@@ -20190,10 +20190,10 @@
         <v>4.5</v>
       </c>
       <c r="J304" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K304" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L304" t="n">
         <v>0.3589241311814759</v>
@@ -20255,10 +20255,10 @@
         <v>5</v>
       </c>
       <c r="J305" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K305" t="n">
-        <v>0.4444444444444445</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="L305" t="n">
         <v>0</v>
@@ -20320,10 +20320,10 @@
         <v>4.5</v>
       </c>
       <c r="J306" t="n">
-        <v>0.0625</v>
+        <v>0.125</v>
       </c>
       <c r="K306" t="n">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
       <c r="L306" t="n">
         <v>0.2</v>
@@ -20388,7 +20388,7 @@
         <v>0</v>
       </c>
       <c r="K307" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L307" t="n">
         <v>0.2</v>
@@ -20450,10 +20450,10 @@
         <v>5</v>
       </c>
       <c r="J308" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="K308" t="n">
-        <v>0.45</v>
+        <v>0.9</v>
       </c>
       <c r="L308" t="n">
         <v>0.1</v>
@@ -20515,10 +20515,10 @@
         <v>4.5</v>
       </c>
       <c r="J309" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K309" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L309" t="n">
         <v>0.3589241311814759</v>
@@ -20580,10 +20580,10 @@
         <v>5</v>
       </c>
       <c r="J310" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K310" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L310" t="n">
         <v>0.3589241311814759</v>
@@ -20645,10 +20645,10 @@
         <v>4</v>
       </c>
       <c r="J311" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K311" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="L311" t="n">
         <v>0.5</v>
@@ -20710,10 +20710,10 @@
         <v>4</v>
       </c>
       <c r="J312" t="n">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="K312" t="n">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="L312" t="n">
         <v>0.7</v>
@@ -20775,10 +20775,10 @@
         <v>5</v>
       </c>
       <c r="J313" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="K313" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="L313" t="n">
         <v>0.3</v>
@@ -20840,10 +20840,10 @@
         <v>4.5</v>
       </c>
       <c r="J314" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="K314" t="n">
         <v>0.3333333333333333</v>
-      </c>
-      <c r="K314" t="n">
-        <v>0.1666666666666667</v>
       </c>
       <c r="L314" t="n">
         <v>0.05</v>
@@ -20905,10 +20905,10 @@
         <v>4</v>
       </c>
       <c r="J315" t="n">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="K315" t="n">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="L315" t="n">
         <v>0.1</v>
@@ -20970,10 +20970,10 @@
         <v>4.5</v>
       </c>
       <c r="J316" t="n">
-        <v>0.3749999999999999</v>
+        <v>0.7499999999999998</v>
       </c>
       <c r="K316" t="n">
-        <v>0.1250000000000001</v>
+        <v>0.2500000000000001</v>
       </c>
       <c r="L316" t="n">
         <v>0.5</v>
@@ -21035,10 +21035,10 @@
         <v>2</v>
       </c>
       <c r="J317" t="n">
-        <v>0.4473684210526315</v>
+        <v>0.8947368421052631</v>
       </c>
       <c r="K317" t="n">
-        <v>0.05263157894736845</v>
+        <v>0.1052631578947369</v>
       </c>
       <c r="L317" t="n">
         <v>0.7</v>
@@ -21100,10 +21100,10 @@
         <v>5</v>
       </c>
       <c r="J318" t="n">
-        <v>0.4946808510638298</v>
+        <v>0.9893617021276595</v>
       </c>
       <c r="K318" t="n">
-        <v>0.005319148936170271</v>
+        <v>0.01063829787234054</v>
       </c>
       <c r="L318" t="n">
         <v>0.6000000000000001</v>
@@ -21165,10 +21165,10 @@
         <v>5</v>
       </c>
       <c r="J319" t="n">
-        <v>0.4292929292929293</v>
+        <v>0.8585858585858586</v>
       </c>
       <c r="K319" t="n">
-        <v>0.0707070707070707</v>
+        <v>0.1414141414141414</v>
       </c>
       <c r="L319" t="n">
         <v>0.75</v>
@@ -21230,10 +21230,10 @@
         <v>4</v>
       </c>
       <c r="J320" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K320" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="L320" t="n">
         <v>0.05</v>
@@ -21295,10 +21295,10 @@
         <v>4.5</v>
       </c>
       <c r="J321" t="n">
-        <v>0.1315789473684211</v>
+        <v>0.2631578947368422</v>
       </c>
       <c r="K321" t="n">
-        <v>0.3684210526315789</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L321" t="n">
         <v>0.9</v>
@@ -21360,10 +21360,10 @@
         <v>5</v>
       </c>
       <c r="J322" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K322" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L322" t="n">
         <v>0.3589241311814759</v>
@@ -21425,10 +21425,10 @@
         <v>5</v>
       </c>
       <c r="J323" t="n">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="K323" t="n">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="L323" t="n">
         <v>0.2</v>
@@ -21490,10 +21490,10 @@
         <v>4.5</v>
       </c>
       <c r="J324" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K324" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L324" t="n">
         <v>0.3589241311814759</v>
@@ -21555,10 +21555,10 @@
         <v>4</v>
       </c>
       <c r="J325" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K325" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L325" t="n">
         <v>0.3589241311814759</v>
@@ -21620,10 +21620,10 @@
         <v>5</v>
       </c>
       <c r="J326" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K326" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L326" t="n">
         <v>0.3589241311814759</v>
@@ -21685,10 +21685,10 @@
         <v>4</v>
       </c>
       <c r="J327" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K327" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L327" t="n">
         <v>0.3589241311814759</v>
@@ -21750,10 +21750,10 @@
         <v>5</v>
       </c>
       <c r="J328" t="n">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="K328" t="n">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="L328" t="n">
         <v>0.5</v>
@@ -21815,7 +21815,7 @@
         <v>3</v>
       </c>
       <c r="J329" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K329" t="n">
         <v>0</v>
@@ -21880,10 +21880,10 @@
         <v>4.5</v>
       </c>
       <c r="J330" t="n">
-        <v>0.4494949494949495</v>
+        <v>0.898989898989899</v>
       </c>
       <c r="K330" t="n">
-        <v>0.0505050505050505</v>
+        <v>0.101010101010101</v>
       </c>
       <c r="L330" t="n">
         <v>0.8</v>
@@ -21948,7 +21948,7 @@
         <v>0</v>
       </c>
       <c r="K331" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L331" t="n">
         <v>0.75</v>
@@ -22010,10 +22010,10 @@
         <v>4.5</v>
       </c>
       <c r="J332" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="K332" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L332" t="n">
         <v>0.7</v>
@@ -22075,10 +22075,10 @@
         <v>5</v>
       </c>
       <c r="J333" t="n">
-        <v>0.3947368421052632</v>
+        <v>0.7894736842105264</v>
       </c>
       <c r="K333" t="n">
-        <v>0.1052631578947369</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="L333" t="n">
         <v>0.95</v>
@@ -22140,10 +22140,10 @@
         <v>4</v>
       </c>
       <c r="J334" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.4210526315789474</v>
       </c>
       <c r="K334" t="n">
-        <v>0.2894736842105263</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="L334" t="n">
         <v>0.8</v>
@@ -22205,10 +22205,10 @@
         <v>4</v>
       </c>
       <c r="J335" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K335" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L335" t="n">
         <v>0.3589241311814759</v>
@@ -22270,10 +22270,10 @@
         <v>4.5</v>
       </c>
       <c r="J336" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K336" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L336" t="n">
         <v>0.3589241311814759</v>
@@ -22338,7 +22338,7 @@
         <v>0</v>
       </c>
       <c r="K337" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L337" t="n">
         <v>0.2</v>
@@ -22403,7 +22403,7 @@
         <v>0</v>
       </c>
       <c r="K338" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L338" t="n">
         <v>0.5</v>
@@ -22465,10 +22465,10 @@
         <v>3.5</v>
       </c>
       <c r="J339" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K339" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L339" t="n">
         <v>0.3589241311814759</v>
@@ -22530,10 +22530,10 @@
         <v>5</v>
       </c>
       <c r="J340" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K340" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L340" t="n">
         <v>0.4</v>
@@ -22595,10 +22595,10 @@
         <v>4.5</v>
       </c>
       <c r="J341" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K341" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="L341" t="n">
         <v>0.1</v>
@@ -22660,10 +22660,10 @@
         <v>4</v>
       </c>
       <c r="J342" t="n">
-        <v>0.4473684210526316</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="K342" t="n">
-        <v>0.0526315789473684</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="L342" t="n">
         <v>0.7</v>
@@ -22725,10 +22725,10 @@
         <v>4</v>
       </c>
       <c r="J343" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K343" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L343" t="n">
         <v>0.3589241311814759</v>
@@ -22790,10 +22790,10 @@
         <v>5</v>
       </c>
       <c r="J344" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K344" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L344" t="n">
         <v>0.3589241311814759</v>
@@ -22855,10 +22855,10 @@
         <v>4.5</v>
       </c>
       <c r="J345" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K345" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L345" t="n">
         <v>0.3589241311814759</v>
@@ -22920,10 +22920,10 @@
         <v>5</v>
       </c>
       <c r="J346" t="n">
-        <v>0.1842105263157895</v>
+        <v>0.368421052631579</v>
       </c>
       <c r="K346" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L346" t="n">
         <v>0.85</v>
@@ -22985,10 +22985,10 @@
         <v>5</v>
       </c>
       <c r="J347" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K347" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="L347" t="n">
         <v>0.4</v>
@@ -23050,10 +23050,10 @@
         <v>5</v>
       </c>
       <c r="J348" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K348" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L348" t="n">
         <v>0.3589241311814759</v>
@@ -23115,10 +23115,10 @@
         <v>5</v>
       </c>
       <c r="J349" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K349" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L349" t="n">
         <v>0.3589241311814759</v>
@@ -23180,10 +23180,10 @@
         <v>4.5</v>
       </c>
       <c r="J350" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K350" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L350" t="n">
         <v>0.3589241311814759</v>
@@ -23245,10 +23245,10 @@
         <v>4</v>
       </c>
       <c r="J351" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K351" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L351" t="n">
         <v>0.3589241311814759</v>
@@ -23310,10 +23310,10 @@
         <v>5</v>
       </c>
       <c r="J352" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K352" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L352" t="n">
         <v>0.3589241311814759</v>
@@ -23375,10 +23375,10 @@
         <v>5</v>
       </c>
       <c r="J353" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K353" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L353" t="n">
         <v>0.3589241311814759</v>
@@ -23440,10 +23440,10 @@
         <v>5</v>
       </c>
       <c r="J354" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K354" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L354" t="n">
         <v>0.3589241311814759</v>
@@ -23505,10 +23505,10 @@
         <v>4.5</v>
       </c>
       <c r="J355" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K355" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L355" t="n">
         <v>0.3589241311814759</v>
@@ -23570,10 +23570,10 @@
         <v>5</v>
       </c>
       <c r="J356" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K356" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L356" t="n">
         <v>0.3589241311814759</v>
@@ -23635,10 +23635,10 @@
         <v>4</v>
       </c>
       <c r="J357" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="K357" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.4444444444444445</v>
       </c>
       <c r="L357" t="n">
         <v>1</v>
@@ -23700,10 +23700,10 @@
         <v>4</v>
       </c>
       <c r="J358" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="K358" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="L358" t="n">
         <v>0.8</v>
@@ -23765,10 +23765,10 @@
         <v>5</v>
       </c>
       <c r="J359" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K359" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L359" t="n">
         <v>0.3589241311814759</v>
@@ -23830,10 +23830,10 @@
         <v>5</v>
       </c>
       <c r="J360" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K360" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L360" t="n">
         <v>0.3589241311814759</v>
@@ -23895,7 +23895,7 @@
         <v>3</v>
       </c>
       <c r="J361" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K361" t="n">
         <v>0</v>
@@ -23960,10 +23960,10 @@
         <v>5</v>
       </c>
       <c r="J362" t="n">
-        <v>0.1874999999999999</v>
+        <v>0.3749999999999999</v>
       </c>
       <c r="K362" t="n">
-        <v>0.3125</v>
+        <v>0.625</v>
       </c>
       <c r="L362" t="n">
         <v>0.6</v>
@@ -24028,7 +24028,7 @@
         <v>0</v>
       </c>
       <c r="K363" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L363" t="n">
         <v>0</v>
@@ -24090,10 +24090,10 @@
         <v>4</v>
       </c>
       <c r="J364" t="n">
-        <v>0.1388888888888889</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="K364" t="n">
-        <v>0.3611111111111111</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L364" t="n">
         <v>0.25</v>
@@ -24155,10 +24155,10 @@
         <v>5</v>
       </c>
       <c r="J365" t="n">
-        <v>0.45</v>
+        <v>0.9</v>
       </c>
       <c r="K365" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="L365" t="n">
         <v>0.5</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="K366" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L366" t="n">
         <v>0.25</v>
@@ -24285,10 +24285,10 @@
         <v>3</v>
       </c>
       <c r="J367" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K367" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L367" t="n">
         <v>0.25</v>
@@ -24350,10 +24350,10 @@
         <v>4</v>
       </c>
       <c r="J368" t="n">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="K368" t="n">
-        <v>0.075</v>
+        <v>0.15</v>
       </c>
       <c r="L368" t="n">
         <v>0.4</v>
@@ -24415,10 +24415,10 @@
         <v>4</v>
       </c>
       <c r="J369" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K369" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L369" t="n">
         <v>0.3589241311814759</v>
@@ -24483,7 +24483,7 @@
         <v>0</v>
       </c>
       <c r="K370" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L370" t="n">
         <v>0.1</v>
@@ -24545,10 +24545,10 @@
         <v>4</v>
       </c>
       <c r="J371" t="n">
-        <v>0.4</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="K371" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L371" t="n">
         <v>0.6</v>
@@ -24610,10 +24610,10 @@
         <v>5</v>
       </c>
       <c r="J372" t="n">
-        <v>0.3749999999999999</v>
+        <v>0.7499999999999999</v>
       </c>
       <c r="K372" t="n">
-        <v>0.1250000000000001</v>
+        <v>0.2500000000000001</v>
       </c>
       <c r="L372" t="n">
         <v>0.75</v>
@@ -24675,10 +24675,10 @@
         <v>5</v>
       </c>
       <c r="J373" t="n">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="K373" t="n">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="L373" t="n">
         <v>0.5</v>
@@ -24740,10 +24740,10 @@
         <v>4.5</v>
       </c>
       <c r="J374" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K374" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L374" t="n">
         <v>0.3589241311814759</v>
@@ -24805,10 +24805,10 @@
         <v>5</v>
       </c>
       <c r="J375" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K375" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L375" t="n">
         <v>0.3589241311814759</v>
@@ -24870,10 +24870,10 @@
         <v>4.5</v>
       </c>
       <c r="J376" t="n">
-        <v>0.4722222222222222</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="K376" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.05555555555555556</v>
       </c>
       <c r="L376" t="n">
         <v>0.5</v>
@@ -24935,10 +24935,10 @@
         <v>5</v>
       </c>
       <c r="J377" t="n">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="K377" t="n">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="L377" t="n">
         <v>0.05</v>
@@ -25000,7 +25000,7 @@
         <v>4.5</v>
       </c>
       <c r="J378" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K378" t="n">
         <v>0</v>
@@ -25065,7 +25065,7 @@
         <v>4.5</v>
       </c>
       <c r="J379" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K379" t="n">
         <v>0</v>
@@ -25130,10 +25130,10 @@
         <v>4.5</v>
       </c>
       <c r="J380" t="n">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="K380" t="n">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="L380" t="n">
         <v>0.25</v>
@@ -25195,10 +25195,10 @@
         <v>4</v>
       </c>
       <c r="J381" t="n">
-        <v>0.2142857142857142</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="K381" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L381" t="n">
         <v>0.7</v>
@@ -25260,10 +25260,10 @@
         <v>5</v>
       </c>
       <c r="J382" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K382" t="n">
-        <v>0.4444444444444445</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="L382" t="n">
         <v>0</v>
@@ -25325,10 +25325,10 @@
         <v>4</v>
       </c>
       <c r="J383" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K383" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L383" t="n">
         <v>0.2</v>
@@ -25393,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="K384" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L384" t="n">
         <v>1</v>
@@ -25455,10 +25455,10 @@
         <v>5</v>
       </c>
       <c r="J385" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K385" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L385" t="n">
         <v>0</v>
@@ -25523,7 +25523,7 @@
         <v>0</v>
       </c>
       <c r="K386" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L386" t="n">
         <v>0.1</v>
@@ -25588,7 +25588,7 @@
         <v>0</v>
       </c>
       <c r="K387" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L387" t="n">
         <v>0.2</v>
@@ -25650,10 +25650,10 @@
         <v>3</v>
       </c>
       <c r="J388" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="K388" t="n">
         <v>0.3333333333333333</v>
-      </c>
-      <c r="K388" t="n">
-        <v>0.1666666666666667</v>
       </c>
       <c r="L388" t="n">
         <v>0.75</v>
@@ -25715,10 +25715,10 @@
         <v>4.5</v>
       </c>
       <c r="J389" t="n">
-        <v>0.475</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="K389" t="n">
-        <v>0.025</v>
+        <v>0.05</v>
       </c>
       <c r="L389" t="n">
         <v>0.4</v>
@@ -25780,10 +25780,10 @@
         <v>5</v>
       </c>
       <c r="J390" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K390" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L390" t="n">
         <v>0.1</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="K391" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L391" t="n">
         <v>0.5</v>
@@ -25910,10 +25910,10 @@
         <v>3.5</v>
       </c>
       <c r="J392" t="n">
-        <v>0.1470588235294117</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="K392" t="n">
-        <v>0.3529411764705883</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L392" t="n">
         <v>0.1</v>
@@ -25975,10 +25975,10 @@
         <v>4.5</v>
       </c>
       <c r="J393" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K393" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L393" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>3</v>
       </c>
       <c r="J394" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K394" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L394" t="n">
         <v>0.3589241311814759</v>
@@ -26105,10 +26105,10 @@
         <v>5</v>
       </c>
       <c r="J395" t="n">
-        <v>0.3684210526315789</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="K395" t="n">
-        <v>0.131578947368421</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="L395" t="n">
         <v>0.15</v>
@@ -26170,10 +26170,10 @@
         <v>5</v>
       </c>
       <c r="J396" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K396" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L396" t="n">
         <v>0.3589241311814759</v>
@@ -26235,10 +26235,10 @@
         <v>4.5</v>
       </c>
       <c r="J397" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K397" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L397" t="n">
         <v>0.3589241311814759</v>
@@ -26300,10 +26300,10 @@
         <v>4</v>
       </c>
       <c r="J398" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K398" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L398" t="n">
         <v>0</v>
@@ -26365,10 +26365,10 @@
         <v>5</v>
       </c>
       <c r="J399" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K399" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L399" t="n">
         <v>0</v>
@@ -26430,10 +26430,10 @@
         <v>4.5</v>
       </c>
       <c r="J400" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K400" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L400" t="n">
         <v>0</v>
@@ -26495,10 +26495,10 @@
         <v>5</v>
       </c>
       <c r="J401" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K401" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L401" t="n">
         <v>0</v>
@@ -26560,10 +26560,10 @@
         <v>5</v>
       </c>
       <c r="J402" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K402" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L402" t="n">
         <v>0.3589241311814759</v>
@@ -26625,10 +26625,10 @@
         <v>4.5</v>
       </c>
       <c r="J403" t="n">
-        <v>0.398989898989899</v>
+        <v>0.797979797979798</v>
       </c>
       <c r="K403" t="n">
-        <v>0.101010101010101</v>
+        <v>0.202020202020202</v>
       </c>
       <c r="L403" t="n">
         <v>0.4</v>
@@ -26690,10 +26690,10 @@
         <v>5</v>
       </c>
       <c r="J404" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K404" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L404" t="n">
         <v>0.3589241311814759</v>
@@ -26755,10 +26755,10 @@
         <v>4</v>
       </c>
       <c r="J405" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K405" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L405" t="n">
         <v>0.3589241311814759</v>
@@ -26820,10 +26820,10 @@
         <v>4</v>
       </c>
       <c r="J406" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K406" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L406" t="n">
         <v>0.3589241311814759</v>
@@ -26885,10 +26885,10 @@
         <v>4.5</v>
       </c>
       <c r="J407" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K407" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L407" t="n">
         <v>0.3589241311814759</v>
@@ -26950,10 +26950,10 @@
         <v>5</v>
       </c>
       <c r="J408" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K408" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L408" t="n">
         <v>0.3589241311814759</v>
@@ -27015,10 +27015,10 @@
         <v>4.5</v>
       </c>
       <c r="J409" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K409" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L409" t="n">
         <v>0.3589241311814759</v>
@@ -27080,7 +27080,7 @@
         <v>4</v>
       </c>
       <c r="J410" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K410" t="n">
         <v>0</v>
@@ -27145,10 +27145,10 @@
         <v>4.5</v>
       </c>
       <c r="J411" t="n">
-        <v>0.368421052631579</v>
+        <v>0.736842105263158</v>
       </c>
       <c r="K411" t="n">
-        <v>0.131578947368421</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="L411" t="n">
         <v>0.5</v>
@@ -27210,10 +27210,10 @@
         <v>3.5</v>
       </c>
       <c r="J412" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="K412" t="n">
-        <v>0.1842105263157895</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="L412" t="n">
         <v>0.1959798994974875</v>
@@ -27275,10 +27275,10 @@
         <v>4</v>
       </c>
       <c r="J413" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="K413" t="n">
-        <v>0.3333333333333334</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="L413" t="n">
         <v>0.95</v>
@@ -27340,10 +27340,10 @@
         <v>3</v>
       </c>
       <c r="J414" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K414" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L414" t="n">
         <v>0.3589241311814759</v>
@@ -27405,10 +27405,10 @@
         <v>5</v>
       </c>
       <c r="J415" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="K415" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L415" t="n">
         <v>0.3</v>
@@ -27470,10 +27470,10 @@
         <v>3</v>
       </c>
       <c r="J416" t="n">
-        <v>0.1842105263157895</v>
+        <v>0.368421052631579</v>
       </c>
       <c r="K416" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L416" t="n">
         <v>0.4</v>
@@ -27535,10 +27535,10 @@
         <v>4</v>
       </c>
       <c r="J417" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K417" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L417" t="n">
         <v>0.3589241311814759</v>
@@ -27600,10 +27600,10 @@
         <v>5</v>
       </c>
       <c r="J418" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K418" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L418" t="n">
         <v>0.3589241311814759</v>
@@ -27665,10 +27665,10 @@
         <v>5</v>
       </c>
       <c r="J419" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K419" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L419" t="n">
         <v>0.3589241311814759</v>
@@ -27730,10 +27730,10 @@
         <v>4.5</v>
       </c>
       <c r="J420" t="n">
-        <v>0.33</v>
+        <v>0.66</v>
       </c>
       <c r="K420" t="n">
-        <v>0.17</v>
+        <v>0.34</v>
       </c>
       <c r="L420" t="n">
         <v>0.6000000000000001</v>
@@ -27795,10 +27795,10 @@
         <v>3.5</v>
       </c>
       <c r="J421" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K421" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="L421" t="n">
         <v>1</v>
@@ -27860,10 +27860,10 @@
         <v>5</v>
       </c>
       <c r="J422" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K422" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L422" t="n">
         <v>0.3589241311814759</v>
@@ -27925,10 +27925,10 @@
         <v>4</v>
       </c>
       <c r="J423" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K423" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L423" t="n">
         <v>0.3589241311814759</v>
@@ -27990,10 +27990,10 @@
         <v>5</v>
       </c>
       <c r="J424" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K424" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L424" t="n">
         <v>0.3589241311814759</v>
@@ -28055,10 +28055,10 @@
         <v>5</v>
       </c>
       <c r="J425" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K425" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L425" t="n">
         <v>0.3589241311814759</v>
@@ -28120,10 +28120,10 @@
         <v>5</v>
       </c>
       <c r="J426" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K426" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L426" t="n">
         <v>0.2</v>
@@ -28185,10 +28185,10 @@
         <v>5</v>
       </c>
       <c r="J427" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K427" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L427" t="n">
         <v>0.3589241311814759</v>
@@ -28250,10 +28250,10 @@
         <v>5</v>
       </c>
       <c r="J428" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K428" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L428" t="n">
         <v>0.3589241311814759</v>
@@ -28315,10 +28315,10 @@
         <v>5</v>
       </c>
       <c r="J429" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K429" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L429" t="n">
         <v>0.3589241311814759</v>
@@ -28380,10 +28380,10 @@
         <v>4</v>
       </c>
       <c r="J430" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K430" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L430" t="n">
         <v>0.3589241311814759</v>
@@ -28445,10 +28445,10 @@
         <v>3.5</v>
       </c>
       <c r="J431" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K431" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L431" t="n">
         <v>0.3589241311814759</v>
@@ -28510,10 +28510,10 @@
         <v>4.5</v>
       </c>
       <c r="J432" t="n">
-        <v>0.275</v>
+        <v>0.55</v>
       </c>
       <c r="K432" t="n">
-        <v>0.225</v>
+        <v>0.45</v>
       </c>
       <c r="L432" t="n">
         <v>0.4</v>
@@ -28575,10 +28575,10 @@
         <v>4.5</v>
       </c>
       <c r="J433" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K433" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L433" t="n">
         <v>1</v>
@@ -28640,10 +28640,10 @@
         <v>4</v>
       </c>
       <c r="J434" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K434" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L434" t="n">
         <v>0.3589241311814759</v>
@@ -28705,10 +28705,10 @@
         <v>4</v>
       </c>
       <c r="J435" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K435" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L435" t="n">
         <v>0.3589241311814759</v>
@@ -28770,10 +28770,10 @@
         <v>4</v>
       </c>
       <c r="J436" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="K436" t="n">
         <v>0.3333333333333333</v>
-      </c>
-      <c r="K436" t="n">
-        <v>0.1666666666666667</v>
       </c>
       <c r="L436" t="n">
         <v>0.8</v>
@@ -28835,10 +28835,10 @@
         <v>4.5</v>
       </c>
       <c r="J437" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K437" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L437" t="n">
         <v>0.3589241311814759</v>
@@ -28900,10 +28900,10 @@
         <v>4</v>
       </c>
       <c r="J438" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K438" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L438" t="n">
         <v>0.3589241311814759</v>
@@ -28965,10 +28965,10 @@
         <v>2.5</v>
       </c>
       <c r="J439" t="n">
-        <v>0.4473684210526316</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="K439" t="n">
-        <v>0.05263157894736851</v>
+        <v>0.105263157894737</v>
       </c>
       <c r="L439" t="n">
         <v>0.8</v>
@@ -29030,10 +29030,10 @@
         <v>2</v>
       </c>
       <c r="J440" t="n">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="K440" t="n">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="L440" t="n">
         <v>0.5</v>
@@ -29095,10 +29095,10 @@
         <v>5</v>
       </c>
       <c r="J441" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K441" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L441" t="n">
         <v>0.3589241311814759</v>
@@ -29160,10 +29160,10 @@
         <v>3.5</v>
       </c>
       <c r="J442" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K442" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L442" t="n">
         <v>0.3589241311814759</v>
@@ -29225,10 +29225,10 @@
         <v>4.5</v>
       </c>
       <c r="J443" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K443" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L443" t="n">
         <v>0.3589241311814759</v>
@@ -29290,10 +29290,10 @@
         <v>5</v>
       </c>
       <c r="J444" t="n">
-        <v>0.45</v>
+        <v>0.9</v>
       </c>
       <c r="K444" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="L444" t="n">
         <v>0.3</v>
@@ -29355,10 +29355,10 @@
         <v>4</v>
       </c>
       <c r="J445" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K445" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L445" t="n">
         <v>0.3589241311814759</v>
@@ -29420,10 +29420,10 @@
         <v>3.5</v>
       </c>
       <c r="J446" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K446" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L446" t="n">
         <v>0.3589241311814759</v>
@@ -29485,10 +29485,10 @@
         <v>2.5</v>
       </c>
       <c r="J447" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K447" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L447" t="n">
         <v>0.3589241311814759</v>
@@ -29550,10 +29550,10 @@
         <v>4.5</v>
       </c>
       <c r="J448" t="n">
-        <v>0.3888888888888888</v>
+        <v>0.7777777777777777</v>
       </c>
       <c r="K448" t="n">
-        <v>0.1111111111111112</v>
+        <v>0.2222222222222223</v>
       </c>
       <c r="L448" t="n">
         <v>0.7000000000000001</v>
@@ -29615,10 +29615,10 @@
         <v>4</v>
       </c>
       <c r="J449" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K449" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="L449" t="n">
         <v>0.25</v>
@@ -29680,7 +29680,7 @@
         <v>4</v>
       </c>
       <c r="J450" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K450" t="n">
         <v>0</v>
@@ -29745,7 +29745,7 @@
         <v>3</v>
       </c>
       <c r="J451" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K451" t="n">
         <v>0</v>
@@ -29810,10 +29810,10 @@
         <v>4.5</v>
       </c>
       <c r="J452" t="n">
-        <v>0.3</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="K452" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="L452" t="n">
         <v>0.3</v>
@@ -29875,10 +29875,10 @@
         <v>4</v>
       </c>
       <c r="J453" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K453" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="L453" t="n">
         <v>0.2</v>
@@ -29943,7 +29943,7 @@
         <v>0</v>
       </c>
       <c r="K454" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L454" t="n">
         <v>1</v>
@@ -30008,7 +30008,7 @@
         <v>0</v>
       </c>
       <c r="K455" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L455" t="n">
         <v>0</v>
@@ -30070,10 +30070,10 @@
         <v>5</v>
       </c>
       <c r="J456" t="n">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="K456" t="n">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="L456" t="n">
         <v>0.5</v>
@@ -30138,7 +30138,7 @@
         <v>0</v>
       </c>
       <c r="K457" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L457" t="n">
         <v>0.3</v>
@@ -30200,10 +30200,10 @@
         <v>3</v>
       </c>
       <c r="J458" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="K458" t="n">
-        <v>0.35</v>
+        <v>0.7</v>
       </c>
       <c r="L458" t="n">
         <v>0.2</v>
@@ -30265,10 +30265,10 @@
         <v>4</v>
       </c>
       <c r="J459" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K459" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L459" t="n">
         <v>1</v>
@@ -30330,10 +30330,10 @@
         <v>5</v>
       </c>
       <c r="J460" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="K460" t="n">
-        <v>0.495</v>
+        <v>0.99</v>
       </c>
       <c r="L460" t="n">
         <v>0.99</v>
@@ -30395,10 +30395,10 @@
         <v>2.5</v>
       </c>
       <c r="J461" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="K461" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="L461" t="n">
         <v>0.75</v>
@@ -30460,7 +30460,7 @@
         <v>4</v>
       </c>
       <c r="J462" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K462" t="n">
         <v>0</v>
@@ -30525,10 +30525,10 @@
         <v>3</v>
       </c>
       <c r="J463" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K463" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="L463" t="n">
         <v>0.2</v>
@@ -30590,10 +30590,10 @@
         <v>4.5</v>
       </c>
       <c r="J464" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K464" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L464" t="n">
         <v>0.3589241311814759</v>
@@ -30655,10 +30655,10 @@
         <v>4.5</v>
       </c>
       <c r="J465" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="K465" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.4444444444444445</v>
       </c>
       <c r="L465" t="n">
         <v>0.25</v>
@@ -30720,7 +30720,7 @@
         <v>4</v>
       </c>
       <c r="J466" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K466" t="n">
         <v>0</v>
@@ -30785,10 +30785,10 @@
         <v>4.5</v>
       </c>
       <c r="J467" t="n">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="K467" t="n">
         <v>0.3333333333333334</v>
-      </c>
-      <c r="K467" t="n">
-        <v>0.1666666666666667</v>
       </c>
       <c r="L467" t="n">
         <v>0.3333333333333334</v>
@@ -30850,10 +30850,10 @@
         <v>4.5</v>
       </c>
       <c r="J468" t="n">
+        <v>0.6666666666666669</v>
+      </c>
+      <c r="K468" t="n">
         <v>0.3333333333333334</v>
-      </c>
-      <c r="K468" t="n">
-        <v>0.1666666666666667</v>
       </c>
       <c r="L468" t="n">
         <v>0.4</v>
@@ -30915,10 +30915,10 @@
         <v>4</v>
       </c>
       <c r="J469" t="n">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="K469" t="n">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="L469" t="n">
         <v>1</v>
@@ -30980,10 +30980,10 @@
         <v>4.5</v>
       </c>
       <c r="J470" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K470" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="L470" t="n">
         <v>0.2</v>
@@ -31043,10 +31043,10 @@
         <v>3.5</v>
       </c>
       <c r="J471" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K471" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="L471" t="n">
         <v>1</v>
@@ -31108,10 +31108,10 @@
         <v>4.5</v>
       </c>
       <c r="J472" t="n">
-        <v>0.368421052631579</v>
+        <v>0.736842105263158</v>
       </c>
       <c r="K472" t="n">
-        <v>0.131578947368421</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="L472" t="n">
         <v>0.25</v>
@@ -31173,10 +31173,10 @@
         <v>4.5</v>
       </c>
       <c r="J473" t="n">
-        <v>0.3529411764705882</v>
+        <v>0.7058823529411764</v>
       </c>
       <c r="K473" t="n">
-        <v>0.1470588235294118</v>
+        <v>0.2941176470588236</v>
       </c>
       <c r="L473" t="n">
         <v>0.5</v>
@@ -31238,10 +31238,10 @@
         <v>4</v>
       </c>
       <c r="J474" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="K474" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="L474" t="n">
         <v>0.4</v>
@@ -31303,10 +31303,10 @@
         <v>5</v>
       </c>
       <c r="J475" t="n">
-        <v>0.196969696969697</v>
+        <v>0.393939393939394</v>
       </c>
       <c r="K475" t="n">
-        <v>0.303030303030303</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="L475" t="n">
         <v>0.7</v>
@@ -31368,10 +31368,10 @@
         <v>4.5</v>
       </c>
       <c r="J476" t="n">
-        <v>0.388888888888889</v>
+        <v>0.7777777777777779</v>
       </c>
       <c r="K476" t="n">
-        <v>0.111111111111111</v>
+        <v>0.2222222222222221</v>
       </c>
       <c r="L476" t="n">
         <v>0.25</v>
@@ -31433,10 +31433,10 @@
         <v>3.5</v>
       </c>
       <c r="J477" t="n">
-        <v>0.4473684210526316</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="K477" t="n">
-        <v>0.05263157894736845</v>
+        <v>0.1052631578947369</v>
       </c>
       <c r="L477" t="n">
         <v>1</v>
@@ -31498,10 +31498,10 @@
         <v>4</v>
       </c>
       <c r="J478" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K478" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L478" t="n">
         <v>0.15</v>
@@ -31563,10 +31563,10 @@
         <v>4.5</v>
       </c>
       <c r="J479" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="K479" t="n">
-        <v>0.08333333333333341</v>
+        <v>0.1666666666666668</v>
       </c>
       <c r="L479" t="n">
         <v>0.7</v>
@@ -31628,10 +31628,10 @@
         <v>2</v>
       </c>
       <c r="J480" t="n">
-        <v>0.42</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="K480" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="L480" t="n">
         <v>0.5</v>
@@ -31693,10 +31693,10 @@
         <v>4</v>
       </c>
       <c r="J481" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K481" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="L481" t="n">
         <v>0</v>
@@ -31758,10 +31758,10 @@
         <v>5</v>
       </c>
       <c r="J482" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="K482" t="n">
-        <v>0.3</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="L482" t="n">
         <v>0.25</v>
@@ -31823,10 +31823,10 @@
         <v>4</v>
       </c>
       <c r="J483" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K483" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L483" t="n">
         <v>0</v>
@@ -31888,7 +31888,7 @@
         <v>5</v>
       </c>
       <c r="J484" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K484" t="n">
         <v>0</v>
@@ -31953,7 +31953,7 @@
         <v>5</v>
       </c>
       <c r="J485" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K485" t="n">
         <v>0</v>
@@ -32018,10 +32018,10 @@
         <v>3.5</v>
       </c>
       <c r="J486" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="K486" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="L486" t="n">
         <v>0.25</v>
@@ -32083,10 +32083,10 @@
         <v>3</v>
       </c>
       <c r="J487" t="n">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
       <c r="K487" t="n">
-        <v>0.025</v>
+        <v>0.05</v>
       </c>
       <c r="L487" t="n">
         <v>0.02</v>
@@ -32148,10 +32148,10 @@
         <v>5</v>
       </c>
       <c r="J488" t="n">
-        <v>0.175</v>
+        <v>0.35</v>
       </c>
       <c r="K488" t="n">
-        <v>0.325</v>
+        <v>0.65</v>
       </c>
       <c r="L488" t="n">
         <v>0.35</v>
@@ -32213,10 +32213,10 @@
         <v>4</v>
       </c>
       <c r="J489" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="K489" t="n">
-        <v>0.3</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="L489" t="n">
         <v>0.05</v>
@@ -32278,10 +32278,10 @@
         <v>3</v>
       </c>
       <c r="J490" t="n">
-        <v>0.275</v>
+        <v>0.55</v>
       </c>
       <c r="K490" t="n">
-        <v>0.225</v>
+        <v>0.45</v>
       </c>
       <c r="L490" t="n">
         <v>0.5</v>
@@ -32343,10 +32343,10 @@
         <v>4.5</v>
       </c>
       <c r="J491" t="n">
-        <v>0.1391752577319588</v>
+        <v>0.2783505154639175</v>
       </c>
       <c r="K491" t="n">
-        <v>0.3608247422680412</v>
+        <v>0.7216494845360825</v>
       </c>
       <c r="L491" t="n">
         <v>0</v>
@@ -32408,10 +32408,10 @@
         <v>5</v>
       </c>
       <c r="J492" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K492" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="L492" t="n">
         <v>0.1</v>
@@ -32473,10 +32473,10 @@
         <v>5</v>
       </c>
       <c r="J493" t="n">
-        <v>0.325</v>
+        <v>0.65</v>
       </c>
       <c r="K493" t="n">
-        <v>0.175</v>
+        <v>0.35</v>
       </c>
       <c r="L493" t="n">
         <v>0.15</v>
@@ -32538,10 +32538,10 @@
         <v>2.5</v>
       </c>
       <c r="J494" t="n">
-        <v>0.35</v>
+        <v>0.7</v>
       </c>
       <c r="K494" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="L494" t="n">
         <v>0.1</v>
@@ -32603,10 +32603,10 @@
         <v>5</v>
       </c>
       <c r="J495" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K495" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="L495" t="n">
         <v>0.25</v>
@@ -32668,7 +32668,7 @@
         <v>4</v>
       </c>
       <c r="J496" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K496" t="n">
         <v>0</v>
@@ -32733,10 +32733,10 @@
         <v>3.5</v>
       </c>
       <c r="J497" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="K497" t="n">
-        <v>0.3</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="L497" t="n">
         <v>0.1</v>
@@ -32798,10 +32798,10 @@
         <v>3</v>
       </c>
       <c r="J498" t="n">
-        <v>0.3666666666666667</v>
+        <v>0.7333333333333334</v>
       </c>
       <c r="K498" t="n">
-        <v>0.1333333333333334</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="L498" t="n">
         <v>0</v>
@@ -32863,10 +32863,10 @@
         <v>3.5</v>
       </c>
       <c r="J499" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K499" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="L499" t="n">
         <v>0.15</v>
@@ -32928,10 +32928,10 @@
         <v>3.5</v>
       </c>
       <c r="J500" t="n">
-        <v>0.3529411764705883</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="K500" t="n">
-        <v>0.1470588235294117</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="L500" t="n">
         <v>0.5</v>
@@ -32993,10 +32993,10 @@
         <v>4</v>
       </c>
       <c r="J501" t="n">
-        <v>0.3947368421052632</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="K501" t="n">
-        <v>0.1052631578947369</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="L501" t="n">
         <v>0.7000000000000001</v>
@@ -33058,10 +33058,10 @@
         <v>2</v>
       </c>
       <c r="J502" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="K502" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L502" t="n">
         <v>0.5</v>
@@ -33123,10 +33123,10 @@
         <v>3</v>
       </c>
       <c r="J503" t="n">
-        <v>0.35</v>
+        <v>0.7</v>
       </c>
       <c r="K503" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="L503" t="n">
         <v>0.5</v>
@@ -33188,10 +33188,10 @@
         <v>3.5</v>
       </c>
       <c r="J504" t="n">
-        <v>0.2857142857142858</v>
+        <v>0.5714285714285716</v>
       </c>
       <c r="K504" t="n">
-        <v>0.2142857142857143</v>
+        <v>0.4285714285714286</v>
       </c>
       <c r="L504" t="n">
         <v>0.7000000000000001</v>
@@ -33253,10 +33253,10 @@
         <v>3.5</v>
       </c>
       <c r="J505" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K505" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L505" t="n">
         <v>0.3</v>
@@ -33318,10 +33318,10 @@
         <v>4</v>
       </c>
       <c r="J506" t="n">
-        <v>0.368421052631579</v>
+        <v>0.736842105263158</v>
       </c>
       <c r="K506" t="n">
-        <v>0.131578947368421</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="L506" t="n">
         <v>0.25</v>
@@ -33383,10 +33383,10 @@
         <v>4</v>
       </c>
       <c r="J507" t="n">
+        <v>0.6666666666666669</v>
+      </c>
+      <c r="K507" t="n">
         <v>0.3333333333333334</v>
-      </c>
-      <c r="K507" t="n">
-        <v>0.1666666666666667</v>
       </c>
       <c r="L507" t="n">
         <v>0</v>
@@ -33448,10 +33448,10 @@
         <v>3.5</v>
       </c>
       <c r="J508" t="n">
-        <v>0.325</v>
+        <v>0.65</v>
       </c>
       <c r="K508" t="n">
-        <v>0.175</v>
+        <v>0.35</v>
       </c>
       <c r="L508" t="n">
         <v>0.8888888888888888</v>
@@ -33513,10 +33513,10 @@
         <v>2</v>
       </c>
       <c r="J509" t="n">
-        <v>0.2499999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="K509" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="L509" t="n">
         <v>0.45</v>
@@ -33578,10 +33578,10 @@
         <v>5</v>
       </c>
       <c r="J510" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K510" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L510" t="n">
         <v>0.6</v>
@@ -33643,7 +33643,7 @@
         <v>2</v>
       </c>
       <c r="J511" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K511" t="n">
         <v>0</v>
@@ -33708,10 +33708,10 @@
         <v>4</v>
       </c>
       <c r="J512" t="n">
-        <v>0.2857142857142858</v>
+        <v>0.5714285714285716</v>
       </c>
       <c r="K512" t="n">
-        <v>0.2142857142857143</v>
+        <v>0.4285714285714286</v>
       </c>
       <c r="L512" t="n">
         <v>0.7</v>
@@ -33773,10 +33773,10 @@
         <v>3</v>
       </c>
       <c r="J513" t="n">
-        <v>0.3571428571428572</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K513" t="n">
-        <v>0.1428571428571429</v>
+        <v>0.2857142857142858</v>
       </c>
       <c r="L513" t="n">
         <v>0</v>
@@ -33838,10 +33838,10 @@
         <v>3.5</v>
       </c>
       <c r="J514" t="n">
-        <v>0.4639175257731959</v>
+        <v>0.9278350515463918</v>
       </c>
       <c r="K514" t="n">
-        <v>0.03608247422680413</v>
+        <v>0.07216494845360825</v>
       </c>
       <c r="L514" t="n">
         <v>0.05</v>
@@ -33903,10 +33903,10 @@
         <v>5</v>
       </c>
       <c r="J515" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="K515" t="n">
-        <v>0.3</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="L515" t="n">
         <v>0.7</v>
@@ -33968,10 +33968,10 @@
         <v>5</v>
       </c>
       <c r="J516" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="K516" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="L516" t="n">
         <v>0.2</v>
@@ -34033,10 +34033,10 @@
         <v>5</v>
       </c>
       <c r="J517" t="n">
-        <v>0.425</v>
+        <v>0.85</v>
       </c>
       <c r="K517" t="n">
-        <v>0.07500000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="L517" t="n">
         <v>0.25</v>
@@ -34098,10 +34098,10 @@
         <v>4</v>
       </c>
       <c r="J518" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K518" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L518" t="n">
         <v>0.8</v>
@@ -34163,10 +34163,10 @@
         <v>4.5</v>
       </c>
       <c r="J519" t="n">
-        <v>0.3823529411764706</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="K519" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="L519" t="n">
         <v>0.9</v>
@@ -34228,10 +34228,10 @@
         <v>4.5</v>
       </c>
       <c r="J520" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="K520" t="n">
-        <v>0.45</v>
+        <v>0.9</v>
       </c>
       <c r="L520" t="n">
         <v>0</v>
@@ -34293,10 +34293,10 @@
         <v>5</v>
       </c>
       <c r="J521" t="n">
-        <v>0.35</v>
+        <v>0.7</v>
       </c>
       <c r="K521" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="L521" t="n">
         <v>0.1</v>
@@ -34358,10 +34358,10 @@
         <v>3.5</v>
       </c>
       <c r="J522" t="n">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="K522" t="n">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="L522" t="n">
         <v>0.25</v>
@@ -34423,7 +34423,7 @@
         <v>4</v>
       </c>
       <c r="J523" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K523" t="n">
         <v>0</v>
@@ -34491,7 +34491,7 @@
         <v>0</v>
       </c>
       <c r="K524" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L524" t="n">
         <v>0.4</v>
@@ -34553,10 +34553,10 @@
         <v>4.5</v>
       </c>
       <c r="J525" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K525" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L525" t="n">
         <v>0.4</v>
@@ -34618,10 +34618,10 @@
         <v>5</v>
       </c>
       <c r="J526" t="n">
-        <v>0.35</v>
+        <v>0.7</v>
       </c>
       <c r="K526" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="L526" t="n">
         <v>0.8</v>
@@ -34683,10 +34683,10 @@
         <v>5</v>
       </c>
       <c r="J527" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K527" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="L527" t="n">
         <v>0.75</v>
@@ -34748,7 +34748,7 @@
         <v>5</v>
       </c>
       <c r="J528" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K528" t="n">
         <v>0</v>
@@ -34813,10 +34813,10 @@
         <v>4</v>
       </c>
       <c r="J529" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K529" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="L529" t="n">
         <v>0.5</v>
@@ -34878,10 +34878,10 @@
         <v>3.5</v>
       </c>
       <c r="J530" t="n">
-        <v>0.2999999999999999</v>
+        <v>0.5999999999999999</v>
       </c>
       <c r="K530" t="n">
-        <v>0.2</v>
+        <v>0.4000000000000001</v>
       </c>
       <c r="L530" t="n">
         <v>0.5</v>
@@ -34943,10 +34943,10 @@
         <v>4.122002820874471</v>
       </c>
       <c r="J531" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K531" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L531" t="n">
         <v>0.3589241311814759</v>
@@ -35008,10 +35008,10 @@
         <v>5</v>
       </c>
       <c r="J532" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="K532" t="n">
-        <v>0.495</v>
+        <v>0.99</v>
       </c>
       <c r="L532" t="n">
         <v>0.1</v>
@@ -35073,10 +35073,10 @@
         <v>3</v>
       </c>
       <c r="J533" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K533" t="n">
-        <v>0.4444444444444445</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="L533" t="n">
         <v>0.8</v>
@@ -35138,7 +35138,7 @@
         <v>4</v>
       </c>
       <c r="J534" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K534" t="n">
         <v>0</v>
@@ -35203,10 +35203,10 @@
         <v>3</v>
       </c>
       <c r="J535" t="n">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="K535" t="n">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="L535" t="n">
         <v>0</v>
@@ -35268,7 +35268,7 @@
         <v>4</v>
       </c>
       <c r="J536" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K536" t="n">
         <v>0</v>
@@ -35333,10 +35333,10 @@
         <v>5</v>
       </c>
       <c r="J537" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K537" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L537" t="n">
         <v>0</v>
@@ -35398,10 +35398,10 @@
         <v>4</v>
       </c>
       <c r="J538" t="n">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="K538" t="n">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="L538" t="n">
         <v>0.35</v>
@@ -35463,10 +35463,10 @@
         <v>4</v>
       </c>
       <c r="J539" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K539" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L539" t="n">
         <v>0.3589241311814759</v>
@@ -35531,7 +35531,7 @@
         <v>0</v>
       </c>
       <c r="K540" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L540" t="n">
         <v>0</v>
@@ -35596,7 +35596,7 @@
         <v>0</v>
       </c>
       <c r="K541" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L541" t="n">
         <v>0.25</v>
@@ -35658,10 +35658,10 @@
         <v>4.5</v>
       </c>
       <c r="J542" t="n">
-        <v>0.475</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="K542" t="n">
-        <v>0.025</v>
+        <v>0.05</v>
       </c>
       <c r="L542" t="n">
         <v>0.05</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K543" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L543" t="n">
         <v>0</v>
@@ -35788,10 +35788,10 @@
         <v>3.5</v>
       </c>
       <c r="J544" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K544" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="L544" t="n">
         <v>0.8</v>
@@ -35853,10 +35853,10 @@
         <v>4</v>
       </c>
       <c r="J545" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K545" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L545" t="n">
         <v>0.5</v>
@@ -35918,7 +35918,7 @@
         <v>3</v>
       </c>
       <c r="J546" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K546" t="n">
         <v>0</v>
@@ -35983,10 +35983,10 @@
         <v>4</v>
       </c>
       <c r="J547" t="n">
-        <v>0.275</v>
+        <v>0.55</v>
       </c>
       <c r="K547" t="n">
-        <v>0.225</v>
+        <v>0.45</v>
       </c>
       <c r="L547" t="n">
         <v>0.5</v>
@@ -36048,7 +36048,7 @@
         <v>4</v>
       </c>
       <c r="J548" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K548" t="n">
         <v>0</v>
@@ -36113,7 +36113,7 @@
         <v>4</v>
       </c>
       <c r="J549" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K549" t="n">
         <v>0</v>
@@ -36178,10 +36178,10 @@
         <v>5</v>
       </c>
       <c r="J550" t="n">
-        <v>0.45</v>
+        <v>0.9</v>
       </c>
       <c r="K550" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="L550" t="n">
         <v>0.3</v>
@@ -36243,7 +36243,7 @@
         <v>3.5</v>
       </c>
       <c r="J551" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K551" t="n">
         <v>0</v>
@@ -36308,10 +36308,10 @@
         <v>4</v>
       </c>
       <c r="J552" t="n">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="K552" t="n">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="L552" t="n">
         <v>0.3</v>
@@ -36373,10 +36373,10 @@
         <v>3.5</v>
       </c>
       <c r="J553" t="n">
-        <v>0.45</v>
+        <v>0.9</v>
       </c>
       <c r="K553" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="L553" t="n">
         <v>0.7</v>
@@ -36438,10 +36438,10 @@
         <v>3</v>
       </c>
       <c r="J554" t="n">
-        <v>0.495</v>
+        <v>0.99</v>
       </c>
       <c r="K554" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="L554" t="n">
         <v>0.04</v>
@@ -36503,10 +36503,10 @@
         <v>4</v>
       </c>
       <c r="J555" t="n">
-        <v>0.0789473684210526</v>
+        <v>0.1578947368421052</v>
       </c>
       <c r="K555" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="L555" t="n">
         <v>0.1</v>
@@ -36568,10 +36568,10 @@
         <v>4</v>
       </c>
       <c r="J556" t="n">
-        <v>0.3947368421052632</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="K556" t="n">
-        <v>0.1052631578947369</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="L556" t="n">
         <v>0.1</v>
@@ -36633,10 +36633,10 @@
         <v>4</v>
       </c>
       <c r="J557" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K557" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L557" t="n">
         <v>0.1</v>
@@ -36698,10 +36698,10 @@
         <v>2.5</v>
       </c>
       <c r="J558" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="K558" t="n">
-        <v>0.04545454545454546</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L558" t="n">
         <v>0.3</v>
@@ -36763,10 +36763,10 @@
         <v>2</v>
       </c>
       <c r="J559" t="n">
-        <v>0.4500000000000001</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="K559" t="n">
-        <v>0.04999999999999989</v>
+        <v>0.09999999999999978</v>
       </c>
       <c r="L559" t="n">
         <v>0.5</v>
@@ -36828,10 +36828,10 @@
         <v>5</v>
       </c>
       <c r="J560" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K560" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L560" t="n">
         <v>0.1</v>
@@ -36893,10 +36893,10 @@
         <v>4</v>
       </c>
       <c r="J561" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="K561" t="n">
-        <v>0.07894736842105265</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="L561" t="n">
         <v>0.1</v>
@@ -36958,10 +36958,10 @@
         <v>5</v>
       </c>
       <c r="J562" t="n">
-        <v>0.404040404040404</v>
+        <v>0.8080808080808081</v>
       </c>
       <c r="K562" t="n">
-        <v>0.09595959595959595</v>
+        <v>0.1919191919191919</v>
       </c>
       <c r="L562" t="n">
         <v>0.02</v>
@@ -37023,10 +37023,10 @@
         <v>4</v>
       </c>
       <c r="J563" t="n">
-        <v>0.45</v>
+        <v>0.9</v>
       </c>
       <c r="K563" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="L563" t="n">
         <v>0.05</v>
@@ -37088,10 +37088,10 @@
         <v>2.5</v>
       </c>
       <c r="J564" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K564" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L564" t="n">
         <v>0</v>
@@ -37153,10 +37153,10 @@
         <v>4</v>
       </c>
       <c r="J565" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="K565" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L565" t="n">
         <v>0.05</v>
@@ -37218,10 +37218,10 @@
         <v>4</v>
       </c>
       <c r="J566" t="n">
-        <v>0.35</v>
+        <v>0.7</v>
       </c>
       <c r="K566" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="L566" t="n">
         <v>0.05</v>
@@ -37283,10 +37283,10 @@
         <v>4</v>
       </c>
       <c r="J567" t="n">
-        <v>0.35</v>
+        <v>0.7</v>
       </c>
       <c r="K567" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="L567" t="n">
         <v>0.5</v>
@@ -37348,10 +37348,10 @@
         <v>4</v>
       </c>
       <c r="J568" t="n">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
       <c r="K568" t="n">
-        <v>0.025</v>
+        <v>0.05</v>
       </c>
       <c r="L568" t="n">
         <v>0</v>
@@ -37413,10 +37413,10 @@
         <v>4</v>
       </c>
       <c r="J569" t="n">
-        <v>0.415</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="K569" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="L569" t="n">
         <v>0.5</v>
@@ -37478,10 +37478,10 @@
         <v>3.5</v>
       </c>
       <c r="J570" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K570" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L570" t="n">
         <v>0.2</v>
@@ -37543,10 +37543,10 @@
         <v>4</v>
       </c>
       <c r="J571" t="n">
-        <v>0.3421052631578947</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="K571" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.3157894736842106</v>
       </c>
       <c r="L571" t="n">
         <v>0</v>
@@ -37609,7 +37609,7 @@
         <v>0</v>
       </c>
       <c r="K572" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L572" t="n">
         <v>1</v>
@@ -37671,10 +37671,10 @@
         <v>3</v>
       </c>
       <c r="J573" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="K573" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L573" t="n">
         <v>0.7</v>
@@ -37736,10 +37736,10 @@
         <v>4</v>
       </c>
       <c r="J574" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K574" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="L574" t="n">
         <v>0.3</v>
@@ -37801,10 +37801,10 @@
         <v>5</v>
       </c>
       <c r="J575" t="n">
-        <v>0.1875</v>
+        <v>0.375</v>
       </c>
       <c r="K575" t="n">
-        <v>0.3125</v>
+        <v>0.625</v>
       </c>
       <c r="L575" t="n">
         <v>0.35</v>
@@ -37866,10 +37866,10 @@
         <v>4</v>
       </c>
       <c r="J576" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K576" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L576" t="n">
         <v>0.1</v>
@@ -37931,10 +37931,10 @@
         <v>5</v>
       </c>
       <c r="J577" t="n">
-        <v>0.45</v>
+        <v>0.9</v>
       </c>
       <c r="K577" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="L577" t="n">
         <v>0.6</v>
@@ -37996,10 +37996,10 @@
         <v>3</v>
       </c>
       <c r="J578" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="K578" t="n">
-        <v>0.35</v>
+        <v>0.7</v>
       </c>
       <c r="L578" t="n">
         <v>0.5</v>
@@ -38061,10 +38061,10 @@
         <v>4</v>
       </c>
       <c r="J579" t="n">
-        <v>0.1315789473684211</v>
+        <v>0.2631578947368422</v>
       </c>
       <c r="K579" t="n">
-        <v>0.3684210526315789</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L579" t="n">
         <v>0.25</v>
@@ -38126,10 +38126,10 @@
         <v>4</v>
       </c>
       <c r="J580" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K580" t="n">
-        <v>0.4</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="L580" t="n">
         <v>0.9</v>
@@ -38191,10 +38191,10 @@
         <v>5</v>
       </c>
       <c r="J581" t="n">
-        <v>0.45</v>
+        <v>0.9</v>
       </c>
       <c r="K581" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="L581" t="n">
         <v>0</v>
@@ -38256,10 +38256,10 @@
         <v>4</v>
       </c>
       <c r="J582" t="n">
-        <v>0.325</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="K582" t="n">
-        <v>0.175</v>
+        <v>0.35</v>
       </c>
       <c r="L582" t="n">
         <v>0.05</v>
@@ -38321,10 +38321,10 @@
         <v>3</v>
       </c>
       <c r="J583" t="n">
-        <v>0.3500000000000001</v>
+        <v>0.7000000000000002</v>
       </c>
       <c r="K583" t="n">
-        <v>0.1499999999999999</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="L583" t="n">
         <v>0</v>
@@ -38386,10 +38386,10 @@
         <v>3.5</v>
       </c>
       <c r="J584" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="K584" t="n">
-        <v>0.35</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="L584" t="n">
         <v>0.1</v>
@@ -38451,10 +38451,10 @@
         <v>3</v>
       </c>
       <c r="J585" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K585" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L585" t="n">
         <v>0.2</v>
@@ -38516,10 +38516,10 @@
         <v>4</v>
       </c>
       <c r="J586" t="n">
-        <v>0.495</v>
+        <v>0.99</v>
       </c>
       <c r="K586" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="L586" t="n">
         <v>0.25</v>
@@ -38581,7 +38581,7 @@
         <v>4</v>
       </c>
       <c r="J587" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K587" t="n">
         <v>0</v>
@@ -38646,10 +38646,10 @@
         <v>4.5</v>
       </c>
       <c r="J588" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K588" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L588" t="n">
         <v>0.25</v>
@@ -38711,10 +38711,10 @@
         <v>4</v>
       </c>
       <c r="J589" t="n">
-        <v>0.45</v>
+        <v>0.9</v>
       </c>
       <c r="K589" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="L589" t="n">
         <v>0.9</v>
@@ -38776,10 +38776,10 @@
         <v>4</v>
       </c>
       <c r="J590" t="n">
-        <v>0.3500000000000001</v>
+        <v>0.7000000000000002</v>
       </c>
       <c r="K590" t="n">
-        <v>0.1499999999999999</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="L590" t="n">
         <v>0.5</v>
@@ -38841,10 +38841,10 @@
         <v>3</v>
       </c>
       <c r="J591" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K591" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L591" t="n">
         <v>0.3589241311814759</v>
@@ -38906,10 +38906,10 @@
         <v>5</v>
       </c>
       <c r="J592" t="n">
-        <v>0.3724489795918368</v>
+        <v>0.7448979591836736</v>
       </c>
       <c r="K592" t="n">
-        <v>0.1275510204081632</v>
+        <v>0.2551020408163265</v>
       </c>
       <c r="L592" t="n">
         <v>0.4</v>
@@ -38971,10 +38971,10 @@
         <v>3.5</v>
       </c>
       <c r="J593" t="n">
-        <v>0.3</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="K593" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="L593" t="n">
         <v>0.4</v>
@@ -39036,10 +39036,10 @@
         <v>2.5</v>
       </c>
       <c r="J594" t="n">
-        <v>0.05000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="K594" t="n">
-        <v>0.45</v>
+        <v>0.9</v>
       </c>
       <c r="L594" t="n">
         <v>0.19</v>
@@ -39101,10 +39101,10 @@
         <v>4</v>
       </c>
       <c r="J595" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K595" t="n">
-        <v>0.4444444444444445</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="L595" t="n">
         <v>0.1</v>
@@ -39166,10 +39166,10 @@
         <v>5</v>
       </c>
       <c r="J596" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K596" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="L596" t="n">
         <v>0.1</v>
@@ -39231,10 +39231,10 @@
         <v>5</v>
       </c>
       <c r="J597" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K597" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L597" t="n">
         <v>0.25</v>
@@ -39296,10 +39296,10 @@
         <v>3</v>
       </c>
       <c r="J598" t="n">
-        <v>0.175</v>
+        <v>0.35</v>
       </c>
       <c r="K598" t="n">
-        <v>0.325</v>
+        <v>0.65</v>
       </c>
       <c r="L598" t="n">
         <v>0.4</v>
@@ -39361,10 +39361,10 @@
         <v>3.5</v>
       </c>
       <c r="J599" t="n">
-        <v>0.4736842105263158</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="K599" t="n">
-        <v>0.02631578947368422</v>
+        <v>0.05263157894736843</v>
       </c>
       <c r="L599" t="n">
         <v>0.05</v>
@@ -39426,10 +39426,10 @@
         <v>4</v>
       </c>
       <c r="J600" t="n">
-        <v>0.44</v>
+        <v>0.88</v>
       </c>
       <c r="K600" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="L600" t="n">
         <v>0.3</v>
@@ -39491,10 +39491,10 @@
         <v>5</v>
       </c>
       <c r="J601" t="n">
-        <v>0.4473684210526315</v>
+        <v>0.8947368421052631</v>
       </c>
       <c r="K601" t="n">
-        <v>0.05263157894736851</v>
+        <v>0.105263157894737</v>
       </c>
       <c r="L601" t="n">
         <v>0.8</v>
@@ -39556,10 +39556,10 @@
         <v>4.122002820874471</v>
       </c>
       <c r="J602" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K602" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L602" t="n">
         <v>0.3589241311814759</v>
@@ -39621,10 +39621,10 @@
         <v>4</v>
       </c>
       <c r="J603" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="K603" t="n">
-        <v>0.35</v>
+        <v>0.7</v>
       </c>
       <c r="L603" t="n">
         <v>0.3</v>
@@ -39686,10 +39686,10 @@
         <v>4.5</v>
       </c>
       <c r="J604" t="n">
-        <v>0.35</v>
+        <v>0.7</v>
       </c>
       <c r="K604" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="L604" t="n">
         <v>0.2</v>
@@ -39751,10 +39751,10 @@
         <v>4</v>
       </c>
       <c r="J605" t="n">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="K605" t="n">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="L605" t="n">
         <v>0.6</v>
@@ -39816,7 +39816,7 @@
         <v>4</v>
       </c>
       <c r="J606" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K606" t="n">
         <v>0</v>
@@ -39881,10 +39881,10 @@
         <v>3</v>
       </c>
       <c r="J607" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K607" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L607" t="n">
         <v>0.2</v>
@@ -39946,10 +39946,10 @@
         <v>4</v>
       </c>
       <c r="J608" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="K608" t="n">
-        <v>0.35</v>
+        <v>0.7</v>
       </c>
       <c r="L608" t="n">
         <v>0</v>
@@ -40011,10 +40011,10 @@
         <v>5</v>
       </c>
       <c r="J609" t="n">
-        <v>0.2321428571428572</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="K609" t="n">
-        <v>0.2678571428571428</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L609" t="n">
         <v>0.4</v>
@@ -40076,7 +40076,7 @@
         <v>3.5</v>
       </c>
       <c r="J610" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K610" t="n">
         <v>0</v>
@@ -40141,10 +40141,10 @@
         <v>4</v>
       </c>
       <c r="J611" t="n">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="K611" t="n">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="L611" t="n">
         <v>0.15</v>
@@ -40206,10 +40206,10 @@
         <v>4</v>
       </c>
       <c r="J612" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K612" t="n">
-        <v>5.551115123125785e-17</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="L612" t="n">
         <v>0.05</v>
@@ -40271,10 +40271,10 @@
         <v>1</v>
       </c>
       <c r="J613" t="n">
-        <v>0.35</v>
+        <v>0.7</v>
       </c>
       <c r="K613" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="L613" t="n">
         <v>1</v>
@@ -40336,10 +40336,10 @@
         <v>4</v>
       </c>
       <c r="J614" t="n">
-        <v>0.1842105263157895</v>
+        <v>0.368421052631579</v>
       </c>
       <c r="K614" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L614" t="n">
         <v>0.2</v>
@@ -40401,10 +40401,10 @@
         <v>3</v>
       </c>
       <c r="J615" t="n">
-        <v>0.08333333333333334</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="K615" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L615" t="n">
         <v>0.88</v>
@@ -40466,7 +40466,7 @@
         <v>3</v>
       </c>
       <c r="J616" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K616" t="n">
         <v>0</v>
@@ -40531,10 +40531,10 @@
         <v>3</v>
       </c>
       <c r="J617" t="n">
-        <v>0.1842105263157895</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="K617" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L617" t="n">
         <v>0.2</v>
@@ -40596,10 +40596,10 @@
         <v>2</v>
       </c>
       <c r="J618" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="K618" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L618" t="n">
         <v>0.7000000000000001</v>
@@ -40659,10 +40659,10 @@
         <v>3</v>
       </c>
       <c r="J619" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K619" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="L619" t="n">
         <v>0.9</v>
@@ -40724,10 +40724,10 @@
         <v>4</v>
       </c>
       <c r="J620" t="n">
-        <v>0.494949494949495</v>
+        <v>0.9898989898989899</v>
       </c>
       <c r="K620" t="n">
-        <v>0.00505050505050505</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="L620" t="n">
         <v>0.8</v>
@@ -40789,10 +40789,10 @@
         <v>5</v>
       </c>
       <c r="J621" t="n">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="K621" t="n">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="L621" t="n">
         <v>0</v>
@@ -40854,10 +40854,10 @@
         <v>4.5</v>
       </c>
       <c r="J622" t="n">
-        <v>0.3571428571428572</v>
+        <v>0.7142857142857144</v>
       </c>
       <c r="K622" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.2857142857142856</v>
       </c>
       <c r="L622" t="n">
         <v>0.2</v>
@@ -40919,10 +40919,10 @@
         <v>3</v>
       </c>
       <c r="J623" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K623" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L623" t="n">
         <v>0</v>
@@ -40984,10 +40984,10 @@
         <v>4</v>
       </c>
       <c r="J624" t="n">
-        <v>0.2142857142857143</v>
+        <v>0.4285714285714286</v>
       </c>
       <c r="K624" t="n">
-        <v>0.2857142857142858</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="L624" t="n">
         <v>0.5</v>
@@ -41049,10 +41049,10 @@
         <v>4</v>
       </c>
       <c r="J625" t="n">
-        <v>0.34375</v>
+        <v>0.6875</v>
       </c>
       <c r="K625" t="n">
-        <v>0.15625</v>
+        <v>0.3125</v>
       </c>
       <c r="L625" t="n">
         <v>0.5</v>
@@ -41114,7 +41114,7 @@
         <v>2.5</v>
       </c>
       <c r="J626" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K626" t="n">
         <v>0</v>
@@ -41182,7 +41182,7 @@
         <v>0</v>
       </c>
       <c r="K627" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L627" t="n">
         <v>1</v>
@@ -41244,10 +41244,10 @@
         <v>3</v>
       </c>
       <c r="J628" t="n">
-        <v>0.425</v>
+        <v>0.85</v>
       </c>
       <c r="K628" t="n">
-        <v>0.075</v>
+        <v>0.15</v>
       </c>
       <c r="L628" t="n">
         <v>0.2</v>
@@ -41309,7 +41309,7 @@
         <v>3.5</v>
       </c>
       <c r="J629" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K629" t="n">
         <v>0</v>
@@ -41374,7 +41374,7 @@
         <v>4</v>
       </c>
       <c r="J630" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K630" t="n">
         <v>0</v>
@@ -41439,10 +41439,10 @@
         <v>3</v>
       </c>
       <c r="J631" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K631" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L631" t="n">
         <v>0.3589241311814759</v>
@@ -41504,10 +41504,10 @@
         <v>3</v>
       </c>
       <c r="J632" t="n">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="K632" t="n">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="L632" t="n">
         <v>0.5</v>
@@ -41569,7 +41569,7 @@
         <v>4</v>
       </c>
       <c r="J633" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K633" t="n">
         <v>0</v>
@@ -41634,10 +41634,10 @@
         <v>1</v>
       </c>
       <c r="J634" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.2857142857142856</v>
       </c>
       <c r="K634" t="n">
-        <v>0.3571428571428572</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L634" t="n">
         <v>0.15</v>
@@ -41699,7 +41699,7 @@
         <v>3</v>
       </c>
       <c r="J635" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K635" t="n">
         <v>0</v>
@@ -41764,7 +41764,7 @@
         <v>3</v>
       </c>
       <c r="J636" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K636" t="n">
         <v>0</v>
@@ -41829,10 +41829,10 @@
         <v>4</v>
       </c>
       <c r="J637" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K637" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L637" t="n">
         <v>0</v>
@@ -41894,10 +41894,10 @@
         <v>3</v>
       </c>
       <c r="J638" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K638" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L638" t="n">
         <v>0.3589241311814759</v>
@@ -41959,10 +41959,10 @@
         <v>1</v>
       </c>
       <c r="J639" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="K639" t="n">
-        <v>0.45</v>
+        <v>0.9</v>
       </c>
       <c r="L639" t="n">
         <v>0.04</v>
@@ -42024,10 +42024,10 @@
         <v>2.5</v>
       </c>
       <c r="J640" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K640" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="L640" t="n">
         <v>0.15</v>
@@ -42089,10 +42089,10 @@
         <v>4.5</v>
       </c>
       <c r="J641" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K641" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L641" t="n">
         <v>0.5</v>
@@ -42154,10 +42154,10 @@
         <v>5</v>
       </c>
       <c r="J642" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K642" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L642" t="n">
         <v>0.3589241311814759</v>
@@ -42219,10 +42219,10 @@
         <v>1</v>
       </c>
       <c r="J643" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K643" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L643" t="n">
         <v>0.3589241311814759</v>
@@ -42284,10 +42284,10 @@
         <v>3</v>
       </c>
       <c r="J644" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K644" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L644" t="n">
         <v>0.3589241311814759</v>
@@ -42349,10 +42349,10 @@
         <v>3.5</v>
       </c>
       <c r="J645" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K645" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L645" t="n">
         <v>0.3589241311814759</v>
@@ -42414,10 +42414,10 @@
         <v>2</v>
       </c>
       <c r="J646" t="n">
-        <v>0.3947368421052632</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="K646" t="n">
-        <v>0.1052631578947369</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="L646" t="n">
         <v>0.4</v>
@@ -42479,10 +42479,10 @@
         <v>5</v>
       </c>
       <c r="J647" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K647" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L647" t="n">
         <v>0.3589241311814759</v>
@@ -42544,10 +42544,10 @@
         <v>3.5</v>
       </c>
       <c r="J648" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K648" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L648" t="n">
         <v>0.75</v>
@@ -42609,10 +42609,10 @@
         <v>4.5</v>
       </c>
       <c r="J649" t="n">
-        <v>0.368421052631579</v>
+        <v>0.736842105263158</v>
       </c>
       <c r="K649" t="n">
-        <v>0.131578947368421</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="L649" t="n">
         <v>0.3</v>
@@ -42674,10 +42674,10 @@
         <v>5</v>
       </c>
       <c r="J650" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K650" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L650" t="n">
         <v>0</v>
@@ -42739,10 +42739,10 @@
         <v>2</v>
       </c>
       <c r="J651" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K651" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L651" t="n">
         <v>0.3589241311814759</v>
@@ -42804,10 +42804,10 @@
         <v>5</v>
       </c>
       <c r="J652" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K652" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L652" t="n">
         <v>0.3589241311814759</v>
@@ -42869,10 +42869,10 @@
         <v>5</v>
       </c>
       <c r="J653" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K653" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L653" t="n">
         <v>0</v>
@@ -42934,10 +42934,10 @@
         <v>4.5</v>
       </c>
       <c r="J654" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K654" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="L654" t="n">
         <v>0.6</v>
@@ -42999,10 +42999,10 @@
         <v>4</v>
       </c>
       <c r="J655" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K655" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="L655" t="n">
         <v>0.5</v>
@@ -43064,10 +43064,10 @@
         <v>4.5</v>
       </c>
       <c r="J656" t="n">
-        <v>0.3333333333333334</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="K656" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L656" t="n">
         <v>0.8</v>
@@ -43129,10 +43129,10 @@
         <v>4.122002820874471</v>
       </c>
       <c r="J657" t="n">
-        <v>0.425</v>
+        <v>0.85</v>
       </c>
       <c r="K657" t="n">
-        <v>0.075</v>
+        <v>0.15</v>
       </c>
       <c r="L657" t="n">
         <v>0.9</v>
@@ -43194,10 +43194,10 @@
         <v>5</v>
       </c>
       <c r="J658" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="K658" t="n">
-        <v>0.3333333333333334</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="L658" t="n">
         <v>0.6</v>
@@ -43262,7 +43262,7 @@
         <v>0</v>
       </c>
       <c r="K659" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L659" t="n">
         <v>0</v>
@@ -43324,10 +43324,10 @@
         <v>5</v>
       </c>
       <c r="J660" t="n">
-        <v>0.45</v>
+        <v>0.9</v>
       </c>
       <c r="K660" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="L660" t="n">
         <v>0.5</v>
@@ -43389,10 +43389,10 @@
         <v>4</v>
       </c>
       <c r="J661" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K661" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L661" t="n">
         <v>0.7692307692307693</v>
@@ -43454,10 +43454,10 @@
         <v>5</v>
       </c>
       <c r="J662" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="K662" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.4444444444444445</v>
       </c>
       <c r="L662" t="n">
         <v>0.125</v>
@@ -43519,10 +43519,10 @@
         <v>4.5</v>
       </c>
       <c r="J663" t="n">
-        <v>0.475</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="K663" t="n">
-        <v>0.025</v>
+        <v>0.05</v>
       </c>
       <c r="L663" t="n">
         <v>0.02</v>
@@ -43584,10 +43584,10 @@
         <v>4</v>
       </c>
       <c r="J664" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K664" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="L664" t="n">
         <v>0.75</v>
@@ -43649,7 +43649,7 @@
         <v>5</v>
       </c>
       <c r="J665" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K665" t="n">
         <v>0</v>
@@ -43714,7 +43714,7 @@
         <v>4</v>
       </c>
       <c r="J666" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K666" t="n">
         <v>0</v>
@@ -43779,7 +43779,7 @@
         <v>4</v>
       </c>
       <c r="J667" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K667" t="n">
         <v>0</v>
@@ -43844,10 +43844,10 @@
         <v>4</v>
       </c>
       <c r="J668" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K668" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="L668" t="n">
         <v>0.8</v>
@@ -43909,10 +43909,10 @@
         <v>4</v>
       </c>
       <c r="J669" t="n">
-        <v>0.425</v>
+        <v>0.85</v>
       </c>
       <c r="K669" t="n">
-        <v>0.075</v>
+        <v>0.15</v>
       </c>
       <c r="L669" t="n">
         <v>0.25</v>
@@ -43974,10 +43974,10 @@
         <v>4.5</v>
       </c>
       <c r="J670" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K670" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L670" t="n">
         <v>0.3</v>
@@ -44039,10 +44039,10 @@
         <v>3.5</v>
       </c>
       <c r="J671" t="n">
-        <v>0.35</v>
+        <v>0.7</v>
       </c>
       <c r="K671" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="L671" t="n">
         <v>0.4</v>
@@ -44107,7 +44107,7 @@
         <v>0</v>
       </c>
       <c r="K672" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L672" t="n">
         <v>0.3</v>
@@ -44169,10 +44169,10 @@
         <v>4</v>
       </c>
       <c r="J673" t="n">
-        <v>0.4500000000000001</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="K673" t="n">
-        <v>0.04999999999999989</v>
+        <v>0.09999999999999978</v>
       </c>
       <c r="L673" t="n">
         <v>0.2</v>
@@ -44234,10 +44234,10 @@
         <v>4.5</v>
       </c>
       <c r="J674" t="n">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="K674" t="n">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="L674" t="n">
         <v>0.25</v>
@@ -44299,10 +44299,10 @@
         <v>5</v>
       </c>
       <c r="J675" t="n">
-        <v>0.2995980052993432</v>
+        <v>0.5991960105986864</v>
       </c>
       <c r="K675" t="n">
-        <v>0.2004019947006567</v>
+        <v>0.4008039894013135</v>
       </c>
       <c r="L675" t="n">
         <v>0</v>
@@ -44364,7 +44364,7 @@
         <v>5</v>
       </c>
       <c r="J676" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K676" t="n">
         <v>0</v>
@@ -44429,7 +44429,7 @@
         <v>5</v>
       </c>
       <c r="J677" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K677" t="n">
         <v>0</v>
@@ -44494,7 +44494,7 @@
         <v>4</v>
       </c>
       <c r="J678" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K678" t="n">
         <v>0</v>
@@ -44559,10 +44559,10 @@
         <v>5</v>
       </c>
       <c r="J679" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="K679" t="n">
-        <v>0.35</v>
+        <v>0.7</v>
       </c>
       <c r="L679" t="n">
         <v>0.15</v>
@@ -44624,10 +44624,10 @@
         <v>4</v>
       </c>
       <c r="J680" t="n">
-        <v>0.4500000000000001</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="K680" t="n">
-        <v>0.04999999999999991</v>
+        <v>0.09999999999999981</v>
       </c>
       <c r="L680" t="n">
         <v>0.5</v>
@@ -44689,10 +44689,10 @@
         <v>4</v>
       </c>
       <c r="J681" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K681" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L681" t="n">
         <v>0.25</v>
@@ -44754,10 +44754,10 @@
         <v>4</v>
       </c>
       <c r="J682" t="n">
-        <v>0.275</v>
+        <v>0.55</v>
       </c>
       <c r="K682" t="n">
-        <v>0.225</v>
+        <v>0.45</v>
       </c>
       <c r="L682" t="n">
         <v>0.3</v>
@@ -44819,7 +44819,7 @@
         <v>4</v>
       </c>
       <c r="J683" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K683" t="n">
         <v>0</v>
@@ -44884,10 +44884,10 @@
         <v>5</v>
       </c>
       <c r="J684" t="n">
-        <v>0.45</v>
+        <v>0.9</v>
       </c>
       <c r="K684" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="L684" t="n">
         <v>0.3</v>
@@ -44949,10 +44949,10 @@
         <v>4.5</v>
       </c>
       <c r="J685" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="K685" t="n">
-        <v>0.45</v>
+        <v>0.9</v>
       </c>
       <c r="L685" t="n">
         <v>0.9</v>
@@ -45014,10 +45014,10 @@
         <v>4.5</v>
       </c>
       <c r="J686" t="n">
-        <v>0.225</v>
+        <v>0.45</v>
       </c>
       <c r="K686" t="n">
-        <v>0.275</v>
+        <v>0.55</v>
       </c>
       <c r="L686" t="n">
         <v>0.1</v>
@@ -45079,10 +45079,10 @@
         <v>3</v>
       </c>
       <c r="J687" t="n">
-        <v>0.3947368421052632</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="K687" t="n">
-        <v>0.1052631578947369</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="L687" t="n">
         <v>0.6</v>
@@ -45144,10 +45144,10 @@
         <v>4</v>
       </c>
       <c r="J688" t="n">
-        <v>0.35</v>
+        <v>0.7</v>
       </c>
       <c r="K688" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="L688" t="n">
         <v>0.5</v>
@@ -45209,10 +45209,10 @@
         <v>4</v>
       </c>
       <c r="J689" t="n">
-        <v>0.3500000000000001</v>
+        <v>0.7000000000000002</v>
       </c>
       <c r="K689" t="n">
-        <v>0.1499999999999999</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="L689" t="n">
         <v>0.2</v>
@@ -45274,10 +45274,10 @@
         <v>5</v>
       </c>
       <c r="J690" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="K690" t="n">
         <v>0.3333333333333333</v>
-      </c>
-      <c r="K690" t="n">
-        <v>0.1666666666666667</v>
       </c>
       <c r="L690" t="n">
         <v>0.1</v>
@@ -45339,10 +45339,10 @@
         <v>5</v>
       </c>
       <c r="J691" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="K691" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L691" t="n">
         <v>0.4</v>
@@ -45404,10 +45404,10 @@
         <v>5</v>
       </c>
       <c r="J692" t="n">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="K692" t="n">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="L692" t="n">
         <v>0.8</v>
@@ -45469,10 +45469,10 @@
         <v>4.5</v>
       </c>
       <c r="J693" t="n">
-        <v>0.225</v>
+        <v>0.45</v>
       </c>
       <c r="K693" t="n">
-        <v>0.275</v>
+        <v>0.55</v>
       </c>
       <c r="L693" t="n">
         <v>0.6</v>
@@ -45534,10 +45534,10 @@
         <v>4</v>
       </c>
       <c r="J694" t="n">
-        <v>0.35</v>
+        <v>0.7</v>
       </c>
       <c r="K694" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="L694" t="n">
         <v>0.1</v>
@@ -45599,10 +45599,10 @@
         <v>4.5</v>
       </c>
       <c r="J695" t="n">
-        <v>0.4411764705882353</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="K695" t="n">
-        <v>0.0588235294117647</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="L695" t="n">
         <v>0.2</v>
@@ -45664,10 +45664,10 @@
         <v>4</v>
       </c>
       <c r="J696" t="n">
-        <v>0.4500000000000001</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="K696" t="n">
-        <v>0.04999999999999989</v>
+        <v>0.09999999999999978</v>
       </c>
       <c r="L696" t="n">
         <v>0.05</v>
@@ -45729,10 +45729,10 @@
         <v>4</v>
       </c>
       <c r="J697" t="n">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="K697" t="n">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="L697" t="n">
         <v>0.2</v>
@@ -45794,10 +45794,10 @@
         <v>4</v>
       </c>
       <c r="J698" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="K698" t="n">
-        <v>0.35</v>
+        <v>0.7</v>
       </c>
       <c r="L698" t="n">
         <v>0.1</v>
@@ -45859,10 +45859,10 @@
         <v>4</v>
       </c>
       <c r="J699" t="n">
-        <v>0.45</v>
+        <v>0.9</v>
       </c>
       <c r="K699" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="L699" t="n">
         <v>0.75</v>
@@ -45924,10 +45924,10 @@
         <v>3.5</v>
       </c>
       <c r="J700" t="n">
-        <v>0.35</v>
+        <v>0.7</v>
       </c>
       <c r="K700" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="L700" t="n">
         <v>0.2</v>
@@ -45989,10 +45989,10 @@
         <v>4</v>
       </c>
       <c r="J701" t="n">
-        <v>0.325</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="K701" t="n">
-        <v>0.175</v>
+        <v>0.35</v>
       </c>
       <c r="L701" t="n">
         <v>0.1</v>
@@ -46054,7 +46054,7 @@
         <v>4.5</v>
       </c>
       <c r="J702" t="n">
-        <v>0.4999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K702" t="n">
         <v>0</v>
@@ -46119,10 +46119,10 @@
         <v>4</v>
       </c>
       <c r="J703" t="n">
-        <v>0.475</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="K703" t="n">
-        <v>0.025</v>
+        <v>0.05</v>
       </c>
       <c r="L703" t="n">
         <v>0.35</v>
@@ -46184,10 +46184,10 @@
         <v>4.5</v>
       </c>
       <c r="J704" t="n">
-        <v>0.325</v>
+        <v>0.65</v>
       </c>
       <c r="K704" t="n">
-        <v>0.175</v>
+        <v>0.35</v>
       </c>
       <c r="L704" t="n">
         <v>0.4</v>
@@ -46249,7 +46249,7 @@
         <v>5</v>
       </c>
       <c r="J705" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K705" t="n">
         <v>0</v>
@@ -46314,10 +46314,10 @@
         <v>4.5</v>
       </c>
       <c r="J706" t="n">
-        <v>0.3157894736842106</v>
+        <v>0.6315789473684211</v>
       </c>
       <c r="K706" t="n">
-        <v>0.1842105263157895</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="L706" t="n">
         <v>0.05</v>
@@ -46379,10 +46379,10 @@
         <v>4.5</v>
       </c>
       <c r="J707" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K707" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="L707" t="n">
         <v>0.05</v>
@@ -46444,7 +46444,7 @@
         <v>5</v>
       </c>
       <c r="J708" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K708" t="n">
         <v>0</v>
@@ -46509,10 +46509,10 @@
         <v>3</v>
       </c>
       <c r="J709" t="n">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="K709" t="n">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="L709" t="n">
         <v>0.5</v>
@@ -46574,10 +46574,10 @@
         <v>4</v>
       </c>
       <c r="J710" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K710" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="L710" t="n">
         <v>0.65</v>
@@ -46639,10 +46639,10 @@
         <v>3</v>
       </c>
       <c r="J711" t="n">
-        <v>0.45</v>
+        <v>0.9</v>
       </c>
       <c r="K711" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="L711" t="n">
         <v>0.15</v>
@@ -46704,10 +46704,10 @@
         <v>4.5</v>
       </c>
       <c r="J712" t="n">
-        <v>0.4444444444444445</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="K712" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L712" t="n">
         <v>0.3</v>
@@ -46769,10 +46769,10 @@
         <v>4</v>
       </c>
       <c r="J713" t="n">
-        <v>0.45</v>
+        <v>0.9</v>
       </c>
       <c r="K713" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="L713" t="n">
         <v>0</v>
@@ -46834,10 +46834,10 @@
         <v>4</v>
       </c>
       <c r="J714" t="n">
-        <v>0.3235294117647058</v>
+        <v>0.6470588235294117</v>
       </c>
       <c r="K714" t="n">
-        <v>0.1764705882352942</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="L714" t="n">
         <v>0</v>

--- a/org134-composite.xlsx
+++ b/org134-composite.xlsx
@@ -2082,7 +2082,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="S25" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="26">
@@ -3999,7 +3999,7 @@
         <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>5.640802090629841</v>
+        <v>5.640802090629842</v>
       </c>
       <c r="I55" t="n">
         <v>2.5</v>
@@ -5202,7 +5202,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="S73" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="74">
@@ -6697,7 +6697,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="S96" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="97">
@@ -7054,7 +7054,7 @@
         <v>0.25</v>
       </c>
       <c r="H102" t="n">
-        <v>4.637718695865118</v>
+        <v>4.637718695865119</v>
       </c>
       <c r="I102" t="n">
         <v>4.5</v>
@@ -9973,7 +9973,7 @@
         <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>5.759619403744655</v>
+        <v>5.759619403744654</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -12319,7 +12319,7 @@
         <v>1</v>
       </c>
       <c r="H183" t="n">
-        <v>5.624805260697463</v>
+        <v>5.624805260697462</v>
       </c>
       <c r="I183" t="n">
         <v>3.5</v>
@@ -13164,7 +13164,7 @@
         <v>1</v>
       </c>
       <c r="H196" t="n">
-        <v>5.140894552863382</v>
+        <v>5.140894552863384</v>
       </c>
       <c r="I196" t="n">
         <v>5</v>
@@ -14659,7 +14659,7 @@
         <v>1</v>
       </c>
       <c r="H219" t="n">
-        <v>6.253066691852202</v>
+        <v>6.253066691852203</v>
       </c>
       <c r="I219" t="n">
         <v>5</v>
@@ -14919,7 +14919,7 @@
         <v>1</v>
       </c>
       <c r="H223" t="n">
-        <v>5.770745798319327</v>
+        <v>5.770745798319328</v>
       </c>
       <c r="I223" t="n">
         <v>4.5</v>
@@ -15238,13 +15238,13 @@
         <v>0</v>
       </c>
       <c r="F228" t="n">
-        <v>7.181110571617286</v>
+        <v>7.181110571617284</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
       </c>
       <c r="H228" t="n">
-        <v>4.637718695865118</v>
+        <v>4.637718695865119</v>
       </c>
       <c r="I228" t="n">
         <v>4.5</v>
@@ -15309,7 +15309,7 @@
         <v>1</v>
       </c>
       <c r="H229" t="n">
-        <v>5.689801875457109</v>
+        <v>5.68980187545711</v>
       </c>
       <c r="I229" t="n">
         <v>5</v>
@@ -16674,7 +16674,7 @@
         <v>1</v>
       </c>
       <c r="H250" t="n">
-        <v>4.922543965581751</v>
+        <v>4.922543965581752</v>
       </c>
       <c r="I250" t="n">
         <v>4</v>
@@ -16999,7 +16999,7 @@
         <v>1</v>
       </c>
       <c r="H255" t="n">
-        <v>6.056460084033612</v>
+        <v>6.056460084033614</v>
       </c>
       <c r="I255" t="n">
         <v>5</v>
@@ -17129,7 +17129,7 @@
         <v>1</v>
       </c>
       <c r="H257" t="n">
-        <v>4.705749183559679</v>
+        <v>4.70574918355968</v>
       </c>
       <c r="I257" t="n">
         <v>4</v>
@@ -19138,7 +19138,7 @@
         <v>1</v>
       </c>
       <c r="F288" t="n">
-        <v>5.716972356395648</v>
+        <v>5.716972356395646</v>
       </c>
       <c r="G288" t="n">
         <v>0.3333333333333334</v>
@@ -19729,7 +19729,7 @@
         <v>0.75</v>
       </c>
       <c r="H297" t="n">
-        <v>5.603777592326135</v>
+        <v>5.603777592326137</v>
       </c>
       <c r="I297" t="n">
         <v>4</v>
@@ -20184,7 +20184,7 @@
         <v>0.1818181818181819</v>
       </c>
       <c r="H304" t="n">
-        <v>5.889491878040421</v>
+        <v>5.889491878040422</v>
       </c>
       <c r="I304" t="n">
         <v>4.5</v>
@@ -20444,7 +20444,7 @@
         <v>0.2727272727272727</v>
       </c>
       <c r="H308" t="n">
-        <v>5.395923834709346</v>
+        <v>5.395923834709345</v>
       </c>
       <c r="I308" t="n">
         <v>5</v>
@@ -22849,7 +22849,7 @@
         <v>0.875</v>
       </c>
       <c r="H345" t="n">
-        <v>5.134320612131107</v>
+        <v>5.134320612131108</v>
       </c>
       <c r="I345" t="n">
         <v>4.5</v>
@@ -22908,7 +22908,7 @@
         <v>1</v>
       </c>
       <c r="F346" t="n">
-        <v>5.859829499252791</v>
+        <v>5.859829499252789</v>
       </c>
       <c r="G346" t="n">
         <v>0.5</v>
@@ -23239,7 +23239,7 @@
         <v>0.5833333333333333</v>
       </c>
       <c r="H351" t="n">
-        <v>5.603777592326135</v>
+        <v>5.603777592326137</v>
       </c>
       <c r="I351" t="n">
         <v>4</v>
@@ -23363,7 +23363,7 @@
         <v>1</v>
       </c>
       <c r="F353" t="n">
-        <v>6.002686642109934</v>
+        <v>6.002686642109931</v>
       </c>
       <c r="G353" t="n">
         <v>0.2</v>
@@ -24734,7 +24734,7 @@
         <v>0.4375</v>
       </c>
       <c r="H374" t="n">
-        <v>4.702715310624766</v>
+        <v>4.702715310624767</v>
       </c>
       <c r="I374" t="n">
         <v>4.5</v>
@@ -25248,7 +25248,7 @@
         <v>1</v>
       </c>
       <c r="F382" t="n">
-        <v>5.123203719357565</v>
+        <v>5.123203719357567</v>
       </c>
       <c r="G382" t="n">
         <v>0.7142857142857142</v>
@@ -26353,7 +26353,7 @@
         <v>1</v>
       </c>
       <c r="F399" t="n">
-        <v>5.397393975592777</v>
+        <v>5.397393975592776</v>
       </c>
       <c r="G399" t="n">
         <v>0.8888888888888888</v>
@@ -26619,7 +26619,7 @@
         <v>0.375</v>
       </c>
       <c r="H403" t="n">
-        <v>5.603777592326135</v>
+        <v>5.603777592326137</v>
       </c>
       <c r="I403" t="n">
         <v>4.5</v>
@@ -27724,7 +27724,7 @@
         <v>0.4117647058823529</v>
       </c>
       <c r="H420" t="n">
-        <v>5.342174369747899</v>
+        <v>5.3421743697479</v>
       </c>
       <c r="I420" t="n">
         <v>4.5</v>
@@ -27854,7 +27854,7 @@
         <v>0.6</v>
       </c>
       <c r="H422" t="n">
-        <v>5.342174369747899</v>
+        <v>5.3421743697479</v>
       </c>
       <c r="I422" t="n">
         <v>5</v>
@@ -29414,7 +29414,7 @@
         <v>0.5161290322580645</v>
       </c>
       <c r="H446" t="n">
-        <v>4.922916741274307</v>
+        <v>4.922916741274306</v>
       </c>
       <c r="I446" t="n">
         <v>3.5</v>
@@ -29668,13 +29668,13 @@
         <v>0</v>
       </c>
       <c r="F450" t="n">
-        <v>6.288400927824219</v>
+        <v>6.288400927824218</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
       </c>
       <c r="H450" t="n">
-        <v>4.91360294117647</v>
+        <v>4.913602941176471</v>
       </c>
       <c r="I450" t="n">
         <v>4</v>
@@ -32597,7 +32597,7 @@
         <v>1</v>
       </c>
       <c r="H495" t="n">
-        <v>4.91360294117647</v>
+        <v>4.913602941176471</v>
       </c>
       <c r="I495" t="n">
         <v>5</v>
@@ -33507,7 +33507,7 @@
         <v>1</v>
       </c>
       <c r="H509" t="n">
-        <v>7.261230446885681</v>
+        <v>7.261230446885682</v>
       </c>
       <c r="I509" t="n">
         <v>2</v>
@@ -33696,7 +33696,7 @@
         <v>0</v>
       </c>
       <c r="F512" t="n">
-        <v>5.349021875292826</v>
+        <v>5.349021875292827</v>
       </c>
       <c r="G512" t="n">
         <v>1</v>
@@ -34450,7 +34450,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="S523" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="524">
@@ -34580,7 +34580,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="S525" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="526">
@@ -34872,7 +34872,7 @@
         <v>1</v>
       </c>
       <c r="H530" t="n">
-        <v>4.645882450898597</v>
+        <v>4.645882450898598</v>
       </c>
       <c r="I530" t="n">
         <v>3.5</v>
@@ -35386,13 +35386,13 @@
         <v>0</v>
       </c>
       <c r="F538" t="n">
-        <v>6.034119414119192</v>
+        <v>6.034119414119194</v>
       </c>
       <c r="G538" t="n">
         <v>1</v>
       </c>
       <c r="H538" t="n">
-        <v>5.584342006596229</v>
+        <v>5.584342006596228</v>
       </c>
       <c r="I538" t="n">
         <v>4</v>
@@ -37271,7 +37271,7 @@
         <v>0</v>
       </c>
       <c r="F567" t="n">
-        <v>5.349021875292826</v>
+        <v>5.349021875292827</v>
       </c>
       <c r="G567" t="n">
         <v>1</v>
@@ -39284,7 +39284,7 @@
         <v>0</v>
       </c>
       <c r="F598" t="n">
-        <v>5.616762260887512</v>
+        <v>5.616762260887511</v>
       </c>
       <c r="G598" t="n">
         <v>1</v>
@@ -39875,7 +39875,7 @@
         <v>1</v>
       </c>
       <c r="H607" t="n">
-        <v>6.253066691852202</v>
+        <v>6.253066691852203</v>
       </c>
       <c r="I607" t="n">
         <v>3</v>
@@ -41362,7 +41362,7 @@
         <v>0</v>
       </c>
       <c r="F630" t="n">
-        <v>5.349021875292826</v>
+        <v>5.349021875292827</v>
       </c>
       <c r="G630" t="n">
         <v>1</v>
@@ -41427,7 +41427,7 @@
         <v>0</v>
       </c>
       <c r="F631" t="n">
-        <v>5.349021875292826</v>
+        <v>5.349021875292827</v>
       </c>
       <c r="G631" t="n">
         <v>1</v>
@@ -42148,7 +42148,7 @@
         <v>0.5833333333333333</v>
       </c>
       <c r="H642" t="n">
-        <v>5.253066691852204</v>
+        <v>5.253066691852203</v>
       </c>
       <c r="I642" t="n">
         <v>5</v>
@@ -42278,7 +42278,7 @@
         <v>0.2</v>
       </c>
       <c r="H644" t="n">
-        <v>4.790183652389449</v>
+        <v>4.79018365238945</v>
       </c>
       <c r="I644" t="n">
         <v>3</v>
@@ -42597,7 +42597,7 @@
         <v>1</v>
       </c>
       <c r="F649" t="n">
-        <v>6.503635198478003</v>
+        <v>6.503635198478002</v>
       </c>
       <c r="G649" t="n">
         <v>0.375</v>
@@ -42993,7 +42993,7 @@
         <v>0.3846153846153846</v>
       </c>
       <c r="H655" t="n">
-        <v>4.637718695865118</v>
+        <v>4.637718695865119</v>
       </c>
       <c r="I655" t="n">
         <v>4</v>
@@ -43058,7 +43058,7 @@
         <v>0.3846153846153846</v>
       </c>
       <c r="H656" t="n">
-        <v>4.91360294117647</v>
+        <v>4.913602941176471</v>
       </c>
       <c r="I656" t="n">
         <v>4.5</v>
@@ -43117,7 +43117,7 @@
         <v>1</v>
       </c>
       <c r="F657" t="n">
-        <v>5.349021875292826</v>
+        <v>5.349021875292827</v>
       </c>
       <c r="G657" t="n">
         <v>0.09345794392523377</v>
@@ -43513,7 +43513,7 @@
         <v>1</v>
       </c>
       <c r="H663" t="n">
-        <v>5.318063306611849</v>
+        <v>5.31806330661185</v>
       </c>
       <c r="I663" t="n">
         <v>4.5</v>
@@ -43903,7 +43903,7 @@
         <v>1</v>
       </c>
       <c r="H669" t="n">
-        <v>5.199317226890756</v>
+        <v>5.199317226890757</v>
       </c>
       <c r="I669" t="n">
         <v>4</v>
@@ -46113,7 +46113,7 @@
         <v>1</v>
       </c>
       <c r="H703" t="n">
-        <v>6.746634735183278</v>
+        <v>6.746634735183279</v>
       </c>
       <c r="I703" t="n">
         <v>4</v>
